--- a/RepA_Stemming_PDFs.xlsx
+++ b/RepA_Stemming_PDFs.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,36 +427,42 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.8" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="3" max="3"/>
+    <col width="39322.8" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ranking</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Contenido</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.196</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -464,42 +477,42 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Doc05.pdf</t>
+          <t>Doc03.pdf</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iicom institut investig comun facult period comun social univers nacional plat pagin analisis discurs vacun anticov twitt karin rodriguez yamil hab guerr rafael angel fonsec val question/cuestion nro vol diciembr issn url revist iicom fpycs unlp doi https//doiorg// analisis discurs vacun anticov twitt discursiv analysis anticov vaccin twitt karin rodriguez univers orient cub karines@gmailcom yamil hab guerr cub yhaber@uoeducu rafael angel fonsec val cub question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin fonseca@uoeducu resum present inform expon result estudi cas descript asoci tweets public baj hashtags #vacunacoronavirus #coronavirusvaccin aport fundamental investig propuest metodolog analisis discurs asist min dat escenari asoci mensaj multisoport present articul enfoqu mixt aplic muestr millon tweets extraid maner aleatori aplic stel brand mostr necesari interrel metodolog uso softwar herramient cuantit asi perspect cualit determin interpret represent simbol emit vacun anticov result present encuadr polar percepcion adopt usuari respect vacun comercializ internacional palabr clav min dat analisis discurs represent simbol vacun coronavirus abstract report presents results descriptiv cas study associat tweets publish hashtags #vaccunacoronavirus #coronavirusvaccin fundamental contribution research proposal methodology discours analysis assist dat mining scenari associat multisupport messag present pap mix approach appli sampl million tweets randomly extract stel brand applications show necessary methodological interrelation use softwar quantitativ tools well qualitativ perspectiv determin interpretation symbolic representation issu anticov vaccination results present framing polarity perceptions adopt users regarding internationally market vaccin question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin keywords dat mining discours analysis symbolic representation vaccin coronavirus introduccion principal cambi estudi discurs irrupcion red social adecu model metodolog estil produccion distribu interpret consum mensaj escenari actual web comunic comput sin cultur codific form digital manovich plataform internet practic comunic permit cambi epistemolog central atribu naturalez objet objet estudi irrupcion tecnolog digital impon semiot perez twitt red social usad web millon usuari hootsuit social segun engess humpretch espaci period polit especial activ numer autor valor potencial twitt espaci comun gomez moy herrer perez et perez trat herramient utiliz actor audienci vid polit notici convers tendenci suces investig cientif espaci red social utiliz mayor escenari microblogging puest permit acced bas dat descarg inform maner facil red social riesg transgresion etic propied intelectual perez seguimient obligatori situ objet estudi asi mism plataform desarroll softwar abiert extraccion filtr result asi mism sid fuent principal revision proces lenguaj natural red obstant apunt metodolog investig ultim años microblogging variabl autor defin propuest teoric metodolog concluyent varied format practic comunic estil text twitt text cientif asoci analisis discurs prevalec analisis text escrit probabl metodolog softwar asoci soport concluyent respect format asi ejempl tecnic emple relacion lingüist corpus analisis sentimient deteccion polar suel vincul aspect teoric analog question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin lingüist sistem funcional zappavingi retor gutierrez dackow argument padill ventur alons ejempl centr posibil analisis ofrec comput softwar cas signific arcil et verbek et van hee investig renunci posibil analisis cualit twitt gomez padill ventur gutierrez marin quinter perez olav dackow mendez relacion soport fot vide nuñez fernandez sharag et ventur mancer molpecer filard ozduz macgarry du et cuy analisis simbol sol permis investig dad capac inteligent artificial desarroll efect complet conclusion respect format consecuent abund mayoritari enfoqu asoci twitt text mining rey orteg et vilar et abascal et almgrem olssom vilariñ et arcil et figueir guimarã hernandez kwabl martinez rey gonzalez garc et ferreir henriquez et percastr et propon model denomin top discussion indicator tdi indic maxim discusion objet ayud investig obten conjunt represent univers aunqu pued super cient mil registr inclu minim inform permit generaliz result bas vari indic cuantific categor contextual sigu propuest investig cuent text rey cuerp tweet mientr part mensaj identific paratext asum conten complementari asoci text rey form part signif represent imagen encuest vide multisoport añad asi valor añad usuari tweet retweets gust asi mism asum cotext opcion respuest dich text aunqu part autor dependient afirm inici text rey relacion disemin inform twitt emergent ocasion enfermedad sid estudi ultim años referent question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin principal virus ebol influenz hn camp interrel salud estudi medi percastr et towers et mientr sued cebral context recient realiz analisis sentimient extraccion termin asoci emocion relacion figur public lenguaj autor logr complement relacion discurs relacion social twitt respect voc autoriz twitt pandemi cov estudi recient relacion estrategi mixt uso metodolog mostr necesari vincul analisis conten analisis discurs min dat contien dos primer tecnic afin apoy softwar extraccion filtr asi ejempl vel et combin tecnic analisis social medi mining estrategi cualit propi analisis lingüist aunqu punt vist teoric apoy concept teor encuadr valor asum muestr bas text escrit asoci etiquet #mequedoencas emergent produc cov pul et ademas expon uso institucional twitt combat infodemi caus crisis sanitari cov aunqu utiliz metodolog cort cuantit poc cas estudi gindin et rodriguez hab rodriguez hab gomez relacion palabr hashtags imagen acerc tip semiot mensaj hac reboll guald año analisis imag proyect twitt refugi perez garc embarg mayor investig twitt fragment estudi mensaj atend soport dec enmarc investig text escrit imag supon analisis incomplet produccion simbol expon criteri analisis mixt relacion analisis cuantit cualit ademas inclu uso softwar deteccion filtr tan efect dinam investig contemporan propon perspect multisoport analisis discurs twitt notici deb estudi form discurs public proces interaccion social van dijk import entonc context relacion social derivaas ejempl confluenci archiv multisoport dad question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin mensaj internet pued dars traves represent verbal semiot imagen vide audi etc barth preocup lingüist discurs semiot describ relacion text imag tres tip anclaj text permit dilucid imag ilustr imag permit aclar text relev text imag mism nivel relacion text produccion icon produc espaci caracter microblogging min dat herramient utiliz complet seleccion clasif filtr mensaj twitt metod dat mining revel inform transform valios conoc retrospect histor prospect proyeccion comprens entend ocurr disting tres tip min text graf multimedi objet min dat aprovech hiperabund inform cab destac tecnic lingüist corpus clustering analisis concord text automatiz deteccion polar form part min text dentr min dat proces general obtencion result uso min text deteccion polar opinion bastant efect aunqu constant mejor bas caracterist lingüist aun precis algoritm efect deteccion recurs iron sarcasm asever autor rey et orteg et hernandez van hee min text utiliz tecnic simbol hac uso recurs lexic revis polar kwabl et tare clasific correct polar mensaj posit negat neutr sygkoun rizz troncy tare complej abord aspect manej sintaxis semant sintaxis deb ten cuent form escrit mensaj dec estructur gramatical usad si esta inclu emoticon contraccion elong palabr embarg min text respond filtr sentimient soport especif dentr construct simbol muestr analiz text escrit caracterist cualidad embarg propiedad public usuari red social pod elimin context enfoc haci deteccion question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin categor relacion social conten multimedi expresion aunqu mayor investig precedent orient haci min text exist poc excepcion prest interes relacion social conten multimedi tal autor welbers opgenhaff wu et gruzd et expres particul import enlac social convers comun virtual factor determin produccion discurs enlac social medibl traves min graf tecnic proporcion herramient map estructur dat encontr nuev conexion relacion objet nod chakrabarti et ademas vasquez habl analisis multimodal relacion semiot text tweet imag añad suscrib dich relacion supon unid estudi sol text escrit sin inclu valor multimodal import dad dat estructur encuentr mayor volum inform exist nivel mundial sin multimedi cas imagen text audi vide ovied velez autor dias nuñez fernandez bouku garc oiz bronwyn mancer molpecer filard ozduz macgarry utiliz recient analisis discurs multimodal estudi produccion discurs audiovisual twitt siend metodolog cualit adapt microblogging mostr particul interes estudi mem analisis discurs multimodal paradigm emergent camp estudi discurs lingüist ampli estudi lenguaj per estudi lenguaj combin recurs o´hallor analisis discurs multimodal caracteriz import entend discurs practic discurs cual realiz intencion particular context determin vari modal dinam exig ciert flexibil metodolog carcam vist entonc principal problem fragment mensaj unid tweet atend soport complej metodolog supon analiz twitt espaci multisoport enfoqu social interact metod estudi conten circul web constitu llamat camp explor estimul interes experiment creativ planteamient conceptual question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin model herramient abren posibil analiz mensaj difund apunt gomez cienci social parec hab entrad fas reconstitu metodolog pod dar cuent fenomen emergent complej resbaladiz propuest metodolog denomin analisis discurs asist min dat recopil tecnic metod emergent describ discurs atend categor circul dan form naturalez multisoport mism permit detect patron replic discurs traves uso softwar aplic format text escrit multimodal asi relacion social correspondient reaccion situ analisis discurs asist min dat present sincron propuest metodolog cort cualit analisis discurs van dijk analisis discurs multimodal analisis conten model cuantit min text inclu tecnic lingüist corpus clustering analisis sentimient min opinion asi min graf correspondient analisis relacion social min multimedi investig trat propuest pued ser explic gui enfoqu mixt contextual multimetodlog si bien obtien result part patron detect aplic precis manej manual filtr objet result muestr asi deteccion relacion social interes comun virtual describ conten multisoport aun factibl traves softwar darl form acuerd objet investig mod investig maner manual conduc busqued facilit indic detect patron repeticion proces maquin deb hac context situacional #vacunacoronavirus #coronavirusvaccin ener comit emergent organiz mundial salud oms decl brot cov constitu emergent salud public import internacional enfermed declar pandemi global marz oms question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin emergent difusion enfermed coronavirus etap inicial pandemi caus incertidumbr nivel mundial alta capac contagi inexistent vacun tratamient paliat sued cebral aislamient social cambi vid aspect aparicion vacun sarscov ofrec esper posibl normal obstant produc ciert reticent vacun muestr carrer aceler permit obten vari tip vacun produc inmun esteriliz organ cort aun determin period duracion cruz et habl esfuerz entidad hac val criteri vacun deb ser volunt moral relacion salud colect aunqu constitu respons jurid verweij expon pued obvi administr masiv person san riesg deb ser inferior benefici cas observ situacion sanitari tiemp usual aprob proces vacun period aproxim años segun cruz et disminu ajust practic emergent expus pandemi harrison wu mencion necesari limit exces optim vacun solucion tecnic objet problem prevencion salud poblacion obstaculiz med pued ser polit moral controvert produc equid tem investig result actual pues analiz cas particul interes acontec internacional irrupcion pandemi cov lleg vacun frent sarscov pued fren expansion infeccion postul respuest definit segun cruz et product laboratori pfiz janss pharmaceuticals compani johnson johnson modernatx astrazenec sinovac gamaley comenz aplic distribu larg plaz poblacion pertinent analisis discurs vacun asoci hashtags #coronavirusvaccin #vacunacoronavirus twitt tem contribu estudi opinion public vacun coronavirus analisis discurs comprension adecu metodolog espaci microblogging question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin metodolog problem investig ¿cual represent simbol generaliz discurs asoci hashtag #vacunacoronavirus #coronavirusvaccine? present investig aplic muestr millon tweets unic millon tweets cual mil correspond etiquet #coronavirusvaccin mil hashtag #vacunacoronavirus public ultim seman año diciembr sustraid aplic stel brand objet principal caracteriz discurs asoci hashtag #vacunacoronavirusy #coronavirusvaccin part enfoqu mixt present report tip descript bas analisis discurs asist min dat part premis represent simbol emit twitt hashtags #coronavirusvaccin #vacunacoronavirus marc practic discurs multisoport gener traves categor contextual propi codig interfaz microblogging dan lug ejercici polar opinion acontec notici ademas dinam teoric metodolog mencion anterior aspect cualit manual objet discurs form textual sid suplant sig siend mencion wodak mey realiz analisis fin tecnic efect centr context superfici textual instrument retor aunqu ello softwar herramient digital facilit obtencion result mejor acab aplic siguient gui analisis fin region emit acuerd descripcion geograf usuari porcient tweets enlac polar total tweets ton discurs question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin encuadr polar recurs expres lingüist utiliz graf textual usad muestr usuari mayor influenci medicion grad entrad central grad eigenvector hil tweets mayor tendenci convers recurs multimodal form expresion discurs muestr result region emit acuerd descripcion geograf usuari #vacunacoronavirus orden pais tweets muestr español españ argentin mexic republ dominican ecuador colombi nicaragu venezuel peru unid miami floridadall tex rusi moscu #coronavirusvaccin orden pais tweets muestr ingles usa indi rein unid canad alemani emirat arab unid qat abu dabi australi belgic nepal keni nigeri chipr franci tailandi islas virgen britan indonesi sri lank pakistan core sur guyan brazil irland singapur holand suiz españ itali republ chec iran sudafr turqu japon hungr egipt paraguay ghan banglades porcient tweets enlac tweets contien enlac conten mayoritari redirig notici medi comun mayor part tem asoci question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin logist vacun nuev cep aplic vacun figur public polar total tweets ton discurs encuadr polar question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin recurs expres lingüist utiliz recurs lenguaj utiliz emple oracion afirm distribu conten medi uso macroestructur semant organiz hashtags utiliz enlac mayor cas continu maximiz conten emit emple sign exclam comill eufem iron cit textual referent discurs emit public personal polit sector sanitari period uso emojis complement grafic destac emoticon vacun señal emergent imag profesional sanitari resalt ademas titular corchet expresion ambigu conten utiliz mayuscul resalt fras question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin tendenci acort palabr aprovech espaci caracter ejempl ingles fwd expon forward usual emple ciert recurs argot popul cruz ded dios ayud emple recurs mas dorm denot respect intencion espiritual efect asunt ciert desconfi logr result plan vacun utiliz recurs expres silog metafor concaten anadiplosis hiperbaton etc referent sensacional tiend caus incertidumbr panic respect farmac emple ciert slogans microargument situacion puntual asi ejempl posicion posit vacun ¡qu gran idea! buen notici #vacunadelcoronavirus contagi ¡ahor mund quiere! hiperbol hoy principi fin pandemi hiperbaton posicion negat pais ric distribu vacun pobr esper concaten carrer virus vacun vacun lleg veloc necesari anadiplosis palabr principi vacun final año fracas concaten silog dos fras dan lug tercer maner implicit relacion vision usuari fracas vacun #vacun har libr #cumplimient devolv normal mas dorm de cuent pued cambi opinion silog …mas mied vacun virus compar question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin proces maraton carrer asi favor continu sigu distanci social actual metafor graf textual usad muestr usuari mayor influenci medicion grad entrad central grad fuent elabor propi bas result softwar stel grafic usuari mayor influenci medicion grad entrad sal #vacunacoronavirus retweets respuest question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin fuent elabor propi basd result softwar stel grafic usuari mayor influenci medicion grad entrad sal #coronavirusvaccin retweets respuest fuent elabor propi bas result softwar brand grafic influenci bas grad central vector #vacunacoronavirus influenci question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin hil tweets mayor tendenci convers tweets mayor tendenci convers usuari comun figur public period llam accion pregunt mensaj muestr medi comun oficial produc retroaliment tem trat hil incompetent implement vacun desiguald vacun lad asoci cantid vacun dispon respect poblacion region pais ademas dud incertidumbr efect farmac recurs multimodal form expresion discurs muestr multimodal muestr aplic prim lug relacion text rey uso emojis grafic conten expres suplant obstant tal cualid visibl conten adjunt text rey mism tweet cas mencion barth hac funcion anclaj ilustr dec mayor cas complement inform expres maner escrit grafic connot encuadr trat poc cas imag vide centr expuest tweet asi ejempl hac referent año inici refir fuent elabor propi bas result softwar brand grafic influenci bas grad central vector #coronavirusvaccin influenci question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin mutacion virus tweet imag indic conten document firm obten vacun practic exim respons revel medicament aun siend evalu product multimedial distribu suel mostr form cont proces traves imagen vide usuari comun figur public moment recib vacun efect posterior asi mism reflej col unid amer obten turn vacun suel mostr dat grafic compart mutacion virus report cas posit porcient mortal numer cas funcion inmun rebañ vacun simbol muestr imag compr navid aglomer person denot modif socializ med pandemi conclusion discurs emit twitt baj hashtags #vacunacoronavirus #coronavirusvaccin expres incertidumbr general respect vacun anticov final año medi comun period analiz dedic distribu notici asoci fundamental logist proces cambi mutacional virus efect vacun embarg convers plataform tiend resalt encuadr asoci desiguald vacun vari aspect efect advers vacun mied posibl implic larg plaz discusion altern decision organiz posibl solucion neutraliz farmac resalt ampli numer tweets relacion fundamental desiguald vacun oportun pais respect acced produc farmac obstant pued dej lad aunqu constitu minor indic esper mensaj recurs multimodal complet conten text rey public grafic inform si lad reproduc storytelling cas particular regionaliz muestr avanc proces cambi mutacional question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin virus uso emojis hashtags complement naturalez contextual discurs plataform mod mod comun contemporane destac influenci social usuari vincul institu mediat imagen narr suces particular distribu aplic vacun usuari mayor grad entrad grad central estructur centr convers sugir proyect influenci discusion conversacional lug hil muestr enfoqu literari recurs expres utiliz llam atencion text cort inclus emple estrategi bas uso mayuscul sign exclam encuest principal cambi insert discusion general continu distanci person evit aglomer uso mascarill mod prevencion pes aplic vacunal util analisis discurs asist min dat cas permit sustr inform clasific lleg conclusion opinion respect vacun anticov diferent format estil microblogging referent bibliografic abascal lopez zeped deteccion patron grup sentimient part analisis tuits polit pist educ arcil orteg jimenez trullenqu analisis supervis sentimient polit español clasif tiemp real tweets bas aprendizaj automat profesional inform barth rhetoric imag heath ed imagemusictext london fontan question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin carcam analisis discurs multimodal compar propuest metodolog form funcion chakrabarti papadimitriou modh falouts fully automatic cross associations acm sigkdd cond pullaguari prad oa compar competent mediat comun polit via twitt campañ electoral candidat presidencial españ ecuador colombi contratext cruz hortal padill vistem despaci pris analisis etic vacun cov fabric distribu reticent enrahon international journal theoretical practical reason dackowc retor twitter ethos polem disput legaliz abort argentin du masood joseph understanding visual mem empirical analysis text superimp mem shar twitt proceedings international aaai conferenc web social medi vol engess humprecht frecuency skillfuln journalism studi ferreir classificaçã automat discurs odi em text twitt tesis diplom brasil figueir guimarã detecting journalistic relevanc social medi two cas study using automatic surrogat featur proceedings ieee/acm international conferenc advanc social networks analysis mining garc jg henriquez herrer analit twitt estudi emocion primari terremot mexic revist iber sistem tecnolog informçã question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin gindin castr coiuttin cardos rostagn emocion accion cas #rosariosangr twitt rosari argentin ambit revist internacional comun doi /ambitosi gomez etnograf celul propuest emergent etnograf digital virtualis gomez manual imperfect polit tiemp irreal univers haban cub gonzalez ja llu ferr analisis sentimient twitt bas aprendizaj profund elirfupv tass gruzd wellm takhteyev imagining twitt imagin community americ behavioral scientist gutierrez retor discurs digital propuest metodolog analisis discurs twitt apost revist cienci social harrison ea wu jw «vaccin confidenc tim covid» europ journal epidemiology hernandez irony sarcasm detection twitt rol affectiv content univers valenci españ hootsuit social world´s mostus social platforms kwabl kwam katsriku sentiment analysis twitt feeds using machin learning effect featur hash bit siz communications appli electronics cae mancer estudi exploratori estrategi encuadr discurs mem humorist public twitt eleccion general noviembr celebr españ revist digit question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin manovich languag new medi mit press marin af quinter jm confianz proces paz colombi twitt revist mexican sociolog martinez min opinion mediant analisis sentimient extraccion concept twitt univers complutens madr españ mendez construccion ident lingüist santiag abascal twitt revist estudi discurs digital redd molpecer sy filard llamamient femin twitt ideolog ident colect reenmarc simbol huelg manifest sentenci man revist digit moy herrer pued contribu twitt comun polit avanz arbor nuñez fernandez discurs visual posmach twitt analisis multimodal icon victimiz revist digit o´hallor kl analisis discurs multimodal revist latinoamerican estudi discurs olav combat verbal twitt cas expresident argentin fernandez kirchn eleccion legisl cultur lenguaj represent revist estudi cultural universitat jaum orteg gutierrez montoy ssau unsupervis twitt sentiment analysis second joint conferenc lexical computational semantics *sem seventh international workshop semantic evaluation ovied ea ovied velez gl min multimedi haci construccion metodolog herramient analit dat estructur revist ingeni question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin ozduz mcgarry huell digital revolu twitt resistent polariz vigil traves imagen text controvert occupy gezi revist internacional comun padill herr argument polit twitt discurs socied percastr pont codin propuest diseñ muestral analisis twitt comun polit profesional inform percastr pont suau gestion comunic red social digital emergent ebol españ communicativ management social medi emergenc ebol spain perez propuest metodolog analisis discurs polit twitt cas #puigdemont comun digital ret oportun perez dec dich dinam discurs nuev period electron proces polit alto perfil polariz escenari mediat latinoamerican tesis doctotal univers haban cub perez hab diaz zamor model periodist interrel teoric nuev period electron plataform twitt escenari mediat latinoamerican perspect comun perez tecnolog digital analisis discurs multimodal lingüist critic semiot social revist cienci social pul hernandez lozan uso institucional twitt combat infodemi caus crisis sanitari cov profesional inform question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin reboll guald situacion internacional person refugi imag twitt ret intervencion trabaj social rey linguisticbas patterns figurativ languag processing cas humor recognition irony detection univers valenci españ rey ja paniagu sanchez min opinion centr topic usand text cort español research computing scienc rodriguez hab analisis sentimient twitt aplic #impeachment donald trump revist mediterrane comunicacion/mediterraneanjournal communication rodriguez hab gomez human digital acerc metodolog emergent cas #electionsus revist alcanc sharag ye spitzberg multilevel model mem diffusion fracking twitt chines sociological dialog http// sued ge cebral voc autoriz twitt pandemi cov actor lexic sentimient marc interpret usuari ordinari revist comun saludvol nº sygkoun rizz troncy replication study top performing system semeval twitt sentiment analys international semantic web conferenc pags spring cham towers afzal bernal bliss brown espinoz jackson judsongarci khan lin mam moren nazari okuney ross rodriguez medlock ebert castillochavez mass medi question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin contagion fear cas ebol amer plos one doi /journalpon van dijk ta discurs interaccion social editorial gedis barcelon van hee machin sens irony? univers gant belgic vasquez lc semiosis palabr imagen twitt ¿com constru signific candidat presidencial eleccion chile? galaxi vel cantamutt nuñez analisis hashtag #mequedoencas convers digital twitt emergent produc cov ikal revist lenguaj cultur ventur argument discurs polit twitt analisis campañ presidencial argentin apost revist cienci social verbek berendt d’haenens opgenhaff critical news reading twitter? exploring datamining practic impact societal discours communications verweij mf «ethics immunization» referenc modul biomedical scienc vilar alons gomez aproxim supervis min opinion tweets español bas conoc lingüist proces lenguaj natural vilariñ zeped sanzon ym carball jl medin flor aplic model lexicosintact detect polar opinion profesor pist educ question/cuestion vol diciembr issn iicom institut investig comun facult period comun social univers nacional plat pagin welbers opgenhaff news social medi filt different perspectiv immigration news websit social medi formats journalism traslation convergenc wodak mey metod analisis critic discurs barcelon gedis wu hofm mason watts says twitt proceedings th international conferenc world wid web wu hofm mason watts says twitt proceedings th international conferenc world wid web zappavign ambient affiliation linguistic perspectiv twitt new medi society</t>
+          <t>deteccion clasif zeroday malwar traves dat mining machin learning tamañ dad constant increment numer complej ataqu informat mecan convencional deteccion result ineficient mayor escenari context present investig propon determin si tecnic dat mining machin learning pued ser utiliz efect entren algoritm capac detect clasific correct nuev tip amenaz machin learning malwar segur informat virus zeroday dat mining inteligent artificial red neuronal cuent result obten posibl afirm utiliz tecnic dat mining machin learning clasific famili malwar result efect cuant problemat deteccion cre cont conjunt dat consider grand algoritm podr logr result ampli superior tar clasif part conjunt mil muestr malwar constru dataset conform atribut consider relev famili dat implement ejecut distint algoritm machin learning clasif cuant deteccion malwar aplic mism tecnic tar clasif utiliz dat part program consider benign cual ser desensambl cuant tare clasif malwar pued extend trabaj realiz comprend mayor numer famili mayor cantid muestr aquell famili men observ deteccion malwar recomiend volv ejecut algoritm aqu implement cantid signific mayor archiv benign conjunt dat octubr august recordon silvi ruiz diaz licenciatur sistem dra claudi pons facult inform ´atic univers nacional plat detecci ´on clasificaci ´on zeroday malwar trav´ dat mining machin learning tesin grad autor august recordon silvi ruiz diaz director dra claudi pons octubr success ﬁnal failur fatal courag continu counts sir winston churchill univers nacional plat facult inform´at resum tesis licenciatur sistem detecci ´on clasificaci ´on zeroday malwar trav´ dat mining machin learning august recordon silvi ruiz diaz estudi sugier ´ult a˜nos increment exponencial ataqu inform´at caus organiz p´erd nanc orden millon mientr much compa˜n´ı dedic tiemp recurs desarroll antivirus complej veloc propagaci´on capac polim´orﬁc pos virus mod represent enorm desaf´ı empres motiv encontr nuev altern comun cient´ıﬁc dat descubiert utilizaci´on t´ecnic machin learning deep learning detecci´on clasiﬁcaci´on malwar pued ofrec opci´on m´as competit investigaci´on comenzar´ realiz extrac ci´on informaci´on conjunt dat compuest mil archiv asm bytes correspondient nuev famili distint malwar lueg medi implementaci´on algoritm machin learning intentar´ clasiﬁc malwar correspondient famili form complementari realizar´ clasiﬁcaci´on binari detecci´on malware/n malwar conjunt redu cid program benign ﬁnaliz as´ı elaboraci´on compar conclusion ´indic general resum introducci´on marc te´or visi´on hist´or riesg inherent tecnolog´ı ataqu inform´at ciberdelit avanc inteligent artiﬁcial gran capac almacen alto pod proces softwar requer resum concept segur inform´at hackers malwar tip malwar m´etod detecci´on an´alisis est´at an´alisis din´am signaturebas vs behaviorbas neces machin learning resum dat mining tratamient dat proces dat mining obtenci´on dat tip dat preproces dat selecci´on ingenier´ı atribut ingenier´ı atribut dat categ´or normalizaci´on atribut vi selecci´on atribut visualizaci´on dat resum concept machin learning deﬁnici´on surgimient machin learning etap proces machin learning conjunt dat tip estimaci´on prediccion inferent m´etod estimaci´on m´etod param´etr m´etod param´etr balanc precisi´on interpret evaluaci´on precisi´on model calid ajust quality ﬁt calid ajust clasiﬁcaci´on overﬁtting underﬁtting balanc sesg varianz clasiﬁcaci´on m´etod aprendizaj categorizaci´on m´etod aprendizaj resum model clasiﬁcaci´on logistic regression knearest neighbors na¨ıv bay support vector machin decision tre m´etod ensambl random forest xgboost red neuronal artiﬁcial red neuronal profund evaluaci´on model clasiﬁcaci´on matriz confusi´on receiv operating characteristic curv resum vii implementaci´on dat mining generaci´on dataset conjunt inicial dat archiv asm archiv bytes famili malwar an´alisis selecci´on caracter´ıst m´as relev extracci´on dat dlls seccion c´odig operaci´on proces archiv asm totalizaci´on ocurrent c´alcul proporcion determinaci´on featur m´as relev consolidaci´on result resum snapshots archiv asm captur snapshots entren red neuronal tama˜n archiv compression rat ngram detall t´ecnic conclusi´on an´alisis exploratori preproces dat estructur conten dataset valor nul dat faltant an´alisis valor nul resoluci´on valor nul distribuci´on valor import variabl selecci´on variabl estandarizaci´on atribut correlaci´on extracci´on atribut kernel pca resum clasiﬁcaci´on malwar algoritm clasiﬁcaci´on knearest neighbors implementaci´on m´etric evaluaci´on random forest implementaci´on viii m´etric evaluaci´on xgboost implementaci´on m´etric evaluaci´on artiﬁcial neural networks implementaci´on m´etric evaluaci´on compar conclusion detecci´on malwar obtenci´on desensambl archiv benign generaci´on nuev dataset an´alisis exploratori preproces implementaci´on soluci´on model bas tratamient sobreajust overﬁtting complej model tas aprendizaj learning rat par tempran early stop regularizaci´on pes weight regularization agreg dropout result obten xgboost soluci´on altern model result obten compar conclusion conclusion trabaj futur bibliograf´ı ix ´indic ﬁgur estad´ıst total ataqu malwar vs potencially unwant application pua almacen visi´on hist´or medi almacen compar ley moor proces dat mining sesg varianz conjunt dat etiquet nearest neighbor nearest neighbor maximizaci´on marg constituci´on ´arbol decici´on random forest c´om particion conjunt entren evoluci´on xgboost decision tre representaci´on visual red neuronal simpl extract archiv aguvpoccafmyvdyfgbasm extract archiv anoozdnbpxirmrbscjbyt proces archiv asm extracci´on dlls archiv asm extracci´on c´odig secci´on archiv asm extracci´on c´odig operaci´on archiv asm c´alcul totalizaci´on ocurrent determinaci´on featur m´as import famili top dlls m´as relev clas malwar top c´odig operaci´on m´as relev clas malwar top c´odig secci´on m´as relev clas malwar obtenci´on proporcion ocurrent relev archiv obtenci´on proporcion ocurrent relev archiv dlls c´odig operaci´on secci´on snapshots bytes famili malwar kfold utiliz clasiﬁc snapshots muestr result red neuronal clasiﬁc snapshots extracci´on tama˜n archiv tama˜n archiv compri mid proces extracci´on ngram top gram m´as relev clas malwar top gram m´as relev clas malwar top gram m´as relev clas malwar extracci´on featur archiv asm kde plot head kde plot ngram proc mov push mov kde plot ngram add pop kde plot secci´on seg import variabl correlaci´on pearson an´alisis component kernel pca matriz confusi´on nearest neighbors roc nearest neighbors matriz confusi´on random forest roc random forest matriz confusi´on xgboost roc xgboost precisi´on accuracy model clasiﬁcaci´on famili p´erd loss model clasiﬁcaci´on famili matriz confusi´on artiﬁcial neural networks roc artiﬁcial neural networks correlaci´on pearson clasiﬁcaci´on malware/n malwar import variabl clasiﬁcaci´on malware/n malwar an´alisis component kernel pca clasiﬁcaci´on malw re/n malwar precisi´on accuracy model clasiﬁcaci´on malware/n malwar p´erd loss model clasiﬁcaci´on malware/n malwar conﬁguraci´on hip par´ametr clasiﬁcaci´on malware/n malwar precisi´on accuracy model clasiﬁcaci´on malware/n malwar p´erd accuracy model clasiﬁcaci´on malware/n malwar matriz consuﬁc´on model clasiﬁcaci´on malware/n malwar roc model clasiﬁcaci´on malware/n malwar xi precisi´on accuracy model clasiﬁcaci´on malware/n malwar utiliz xgboost error model clasiﬁcaci´on malware/n malwar utiliz xgboost matriz confusi´on clasiﬁcaci´on malware/n malwar utiliz xgboost roc clasiﬁcaci´on malware/n malwar utiliz xgboost cap´itul introducci´on viv tecnolog´ı cumpl rol import vid person utiliz internet tip activ tar sensibl pag cuent realiz compr consult ban cari manten contact amistad familiar ver pel´ıcul leer notici frecuent llev instal distint aplic disposit acept t´ermin condicion siti compa˜n´ı sab realment qu´ dat acces qu´ ´est ser´ usad mism mod inadvertid diari transmit informaci´on sensi ble contrase˜n dat tarjet cr´edit canal conﬁ segur nadi est´a escuch form simil compart inform ci´on personal ubicaci´on fot red social rar deteni´endon pens lad pued hab algui malintencion cre perﬁl activ n´umer aplic util internet lug dud ex tens bas mism softwar softwar disposit servidor equip intermedi conect softwar mencion conﬁ diari embarg ´est tod construcci´on human suscept error vulner escenari previst m´as a´un error vulner vez detect llev tiemp correg cas depend compa˜n´ı usuari sistem aplic actualiz solucion problem context hackers person malintencion aprovech vulner softwar y/o conﬁanz person desplieg co nocimient herramient llev cab objet quiz´ m´as com´un herramient malwar t´ermin malwar malicious softwar program cuy ﬁn compromet cualqui comput disposit intelig dise˜n hack ﬁnes malici rob informaci´on conﬁ dencial penetr red da˜n infraestructur cr´ıtic etc program pued cap´itul introducci´on inclu virus worms troyan spywar bots rootkits ransomwar seg´un prestigi institut dedic segur avtest d´ıa produc m´as nuev program malici malwar potentially unwant applications pua increment ´ult a˜nos cercan represent p´erd millonari compa˜n´ı gobi siti cyber security ventur estim p´erd anual da˜n relacion cibercrim alcanzar´ı mil millon d´olar nivel global dat realment alarm representar´ desaf´ı human deber´ enfrent pr´oxim d´ec empres dedic desarroll antivirus tal norton avg mcafe kaspersky hac mejor esfuerz hac frent problem´ati ca tradicional program utiliz m´etod signaturebas detecci´on malwar signatur secuenci cort bytes sirv identiﬁc malwar conoc embarg m´etod capaz prov form identiﬁc ataqu zeroday malwar polim´orﬁc utiliz t´ecni cas ofuscaci´on capac cre cient variedad si mism dad cuent registr mism ´ult a˜nos grup investig junt comun antimalwar report utiliz t´ecnic machin learning deep learning an´alisis detecci´on malwar exist dos t´ecnic pued aplic decid si c´odig program benign malign rea liz an´alisis est´at din´am t´ecnic an´alisis est´at eje cut c´odig sin s´ol examin estructur propiedad dat binari t´encic an´alisis din´am cambi ejecut c´odig observ comport ejecuci´on red ambient trol ejempl sandbox sistem detecci´on malwar utiliz an´alisis est´at din´am inclus ambos prop´osit investigaci´on objet central evalu efectivi dad utiliz distint t´ecnic an´alisis est´at relacion machin lear ning dat mining detecci´on clasiﬁcaci´on malwar aplic t´ecnic detecci´on tempran malwar pued result particul util identiﬁc ataqu zeroday zeroday malwar desconoc dec nue vo tip c´odig malici a´un cre parch revision resuelv fall segur proces clasiﬁcaci´on detecci´on ser´ llev cab trabaj cons tar´ divers etap comenz obtenci´on dat ´est ser´ cap´itul introducci´on compon conjunt part estar´ conform casi mues tras archiv malign desensambl vez hech tendr´ lug cons trucci´on dataset part extracci´on caracter´ıst m´as relev consider mayor inter´ conjunt dat etap den min dat mining consider quiz´ m´as import m´as tiemp demandar´ tod investigaci´on dataset gener deber´ ser somet distint t´ecnic preproces depur preparaci´on pued ser utiliz algoritm machin learning final realizar´ construcci´on ajust model clasiﬁcaci´on detecci´on sider apropi dich tare result obten ser´ analiz compar emp´ıric bas´ distint m´etric part marc te´or cap´itul visi´on hist´or avanc tecnolog´ı ´ult tiemp tra´ıd consig grand ben ﬁci poblaci´on usuari general avanc camp medicin segur intercomunicaci´on person encuentr f´ısic distint lugar planet inclus permit aparici´on nuev mer cad gran potencial crecimient embarg beneﬁci vien acompa˜n riesg casi maner inherent adem´ oportuni dad tambi´ conllev amenzaz principal industri softwar amenaz malwar increment exponencial haci´endol s´ol m´as soﬁstic complej sin tambi´ m´as dif´ıcil detect siguient cap´ıtul dar´ brevement marc hist´or relacion ries go tecnolog´ı ataqu inform´at mientr m´as adel abor dar´ avanc camp inteligent artiﬁcial ´ult a˜nos riesg inherent tecnolog´ı nuev tecnolog´ı prop´osit otorg diferent beneﬁci person logr exit embarg tambi´ exist cons cuenci advers deriv progres seg´un siti welivesecurity eset ´est riesg asoci tecnolog´ı inteligent artiﬁcial ai sid denomin mayor avanc tecnol´ogicod ´ult a˜nos comenz mostr dici peligr ejempl fak news notici fals deep fak im´agen person sid alter digital as´ı ca racter´ıst a´un vislumbr complet interfac computadoracerebr h´ıperautomatizaci´on quier dec combin ci´on rob´ot inteligent articial cap´itul visi´on hist´or tecnolog´ı m´ovil quint generaci´on nuev tecnolog´ı dep den infraestructur alta veloc embarg dad condicion actual pronostic d´eﬁcits signiﬁc capac cobertur inversion red telecomun desaf´ı estar´ cons tru infraestructur modern adem´ introduc sistem segur conﬁabl dentr capac existent computaci´on cu´ant computaci´on cu´ant podr´ı reduc dr´asticam tiemp necesari resolv problem matem´at actual ment apoy t´ecnic cifr import cuent capac proces podr´ı volv impr´act algoritm criptogr´aﬁc actual correr´ı rieg inutiliz mayor´ı sistem actual infraestructur cr´ıtic segur dat computaci´on nub computaci´on nub potencial desarroll distint sector expand acces tecnol´og ´ar remot as´ı vincul tecnolog´ı mism tiemp mayor cantid dat aloj nub empres est´an acumul vez m´as informaci´on personal cre potencial riesg privac segur dat adem´ riesg asoci tecnolog´ı tambi´ destac aspect lacion cibersegur ataqu cibern´et adopt m´ultipl form est´an extend inclus ambient f´ısic ciber taqu infraestructur cr´ıtic comienz aparec normal industri energ´et salud transport afect inclus ciudad enter mientr tecnolog´ı camp encuentr permanent crecimient tambi´ cibercrim ataqu perpetr grup vez m´as ganiz cuent gran disponibil herramient cre tal ﬁnes probabil baj ser detect enjui ciad ataqu inform´at ciberdelit ´ultim d´ec mostr ten import increment ataqu form´at raz´on tal crecimient deb cambi motivaci´on detr´ ataqu hac a˜nos principal objet ver qu´ tan lej pod´ı lleg embarg dej ser cas actual ataqu escond gran gam interes siend r´edit econ´om m´as prepond rant inclus empez realiz ataqu ﬁn rob informaci´on y/o desestabiliz ataqu inform´at ciberdelit siguient gr´aﬁc permit observ clar aument n´umer ata ques registr a˜no correspondient ´ultim d´ec figur estad´ıst total ataqu avtest institut m´as reconoc dedic teste produc tos segur registr infeccion d´ıa siend malwar tip ataqu conoc m´as com´un gr´aﬁc encuentr continuaci´on muestr estad´ıst ´ultim a˜no correspondient dos principal tip ataqu cap´itul visi´on hist´or figur malwar vs potencially unwant application pua ciberataqu s´ol impact industri softwar sin tambi´ econom´ı empres gobi deb respond dich ataqu avanc inteligent artiﬁcial t´ermin inteligent artiﬁcial acu˜n m´as a˜nos despu´ avanc camp sid sorprendent hac poc a˜nos inteligent artiﬁcial parec´ı asunt futur dif´ıcil podr´ı altern d´ıa d´ıa cort plaz embarg hoy realid aspir revolucion vari aspect socied pr´ox a˜nos avanc inteligent artiﬁcial hor super capac human activ ajedrez jueg go traducci´on lleg ahor titu lar inteligent artiﬁcial est´a present industri men d´ec raz´on reci´ ahor empiez vers aplic utiliz requier tres cos alto pod c´alcul gran capac almacen softwar apropi as´ı mism tecnolog´ı ten´ı ten cost acept gran capac almacen pilar m´as import dat scienc capac almacen grand vol´umen informaci´on ser guard maner ﬁabl transfer grand veloc avanc inteligent artiﬁcial figur almacen visi´on hist´or imag anterior pued ver izquierd unid almacen meg bytes siend carg avi´on unidad alquil d´olar mes si ajust preci inﬂaci´on casi a˜nos despu´ meg bytes dobl capac vend´ı d´olar actual apen a˜nos despu´ valor pued acced disc r´ıgid prove vec almacen embarg cienci est´a explor nuev direccion promet revolucion mod almacen informaci´on utilizaci´on adn disposit s´ol minimiz dr´astic tama˜n sin tambi´ aument capac almacen exponencial siguient cuadr present compar disc r´ıgid memori ﬂash utiliz ci´on adn cap´itul visi´on hist´or figur medi almacen compar alto pod proces pod proces grand vol´umen dat actual necesit gran pod c´omput pod proces ley moor sig observ fech permit pon perspect aument pod c´alcul permit ver c´om hac poc a˜nos comput lej logr capac computacional pos actual figur ley moor ley moor establec b´asic capac c´omput duplic diecioch mes resum softwar requer concept comput inteligent surgi´ prueb alan turing plante´ entonc siguient quinc veint a˜nos tuvi ron lug esfuerz camp tal primer robots compu tador mark perceptron capaz aprend nuev habil ensay error embarg ning´un avanc substancial deep blu derrot´ campe´on ajedrec garry kasparov part a˜nos actual machin learning inteligent artiﬁcial ´ar relacion empez crec vez m´as adopt tip cam pos reﬂexion acerc caus detr´ demor explosi´on disciplin mencion carenci materi proces alma cenamient tambi´ destac falt lenguaj programaci´on acord sistem bas dat proces paralel distribu herramient resum present cap´ıtul mencion´ c´om avanc tecnol´og impact vid person riesg inherent ´est tra consig tambi´ abord´ tem ataqu inform´at cibercrim actual c´om ´est ido increment evolucion maner alarm ´ultim estudi´ avanc inteligent artiﬁcial ´ult a˜nos cu´al pilar explicar´ı qu´ uso ven populariz ´ult a˜nos pr´oxim cap´ıtul ver´ concept relacion segur form´at distint motiv person comet ataqu form´at cu´al m´etod pued ser utiliz detect ataqu test turing estipul si person interactu m´aquin pued dars cuent ´est person entonc constitu evident m´aquin consider inteligent cap´itul concept segur inform´at habl segur inform´at reﬁer pr´actic preserv defend aquel softwar comput servidor disposit m´ovil sist mas electr´on red bas dat ataqu malici ello impor tant conoc s´ol concept relacion dich tem sin tambi´ cu´al proces protocol m´etod herramient pued utiliz hac frent dich amenaz siguient cap´ıtul describir´ ciert concept fundamental relacion dos segur inform´at comenzar´ describ c´om pued clasiﬁc diferent tip hackers descripci´on distint clas malwar pued encontr ﬁnalment cu´al m´etod detect program hackers utiliz t´ermin ingl´es hack refer aquell person expert comput habil conoc t´ecnic espec´ıﬁc resolv problem mism pued ser clasiﬁc siguient categor´ı whit hat hackers expert segur utiliz distint t´ecnic co mo penetration testing evalu tan segur informaci´on organizaci´on back hat hackers categor´ı m´as gen´er refer hackers general grup encuentr aquell cre virus inﬁltran red etc script kiddi t´ermin derogatori usa refer aqu llos hackers poc conoc simplement utiliz herramient cre algui m´as cap´itul concept segur inform´at hacktivists atac motiv razon pol´ıtic y/o tambi´ religi des expon person activ il´ıcit hackers patrocin hackers contrat gobi po nen disposici´on recurs ilimit atac organiz cion hackers esp´ıas contrat empres objet inﬁltrar com petenci rob informaci´on ciberterror hackers motiv creenci pol´ıtic religi intent cre mied caos socied atac infraestructur clav lad prolifer comun hackers compart conoc adem´ distribu herramient form gratuit pag clus suel encontr public ofrec diner cambi des cubrimient nuev vulner determin sistem oper soft war malwar palabr malwar provien abreviaci´on malicious softwar pued ser utiliz compromet funcion sistem rob informaci´on salt trol acces cualqui form caus da˜n host est´a ejecut tip malwar malwar pued divid distint categor´ı depend prop´osi continuaci´on describ clas adwar cuy abreviatur provien advertisingsupport softwar tip malwar cuy ´unic prop´osit visualizaci´on public ejempl com´un podr´ı ser utilizaci´on ventan emergent siti web aqu llos ejecut softwar much vec aplic ofrec ver sion gratuitasper est´an atest public adwar patrocin empres public utiliz co mo herramient gener gananci monetari bot bots program escrit ejecut determin oper autom´at mientr bots cre prop´osit da˜nin jueg l´ıne subast internet concurs l´ıne etc uti lizaci´on ﬁnes malici increment bots pued ser utiliz botnets conjunt comput control tercer efectu ataqu ddos distribut denial servic spambots malwar muestr public siti web web spiders recopil inform ci´on servidor distribuci´on malwar disfraz result dos b´usqued siti descarg bug context softwar bug fall program produc result des fall normal result error hu man general encuentr c´odig fuent compil program ciert bugs menor simplement afectar´ funcion program pued llev tiemp ser detect embarg bugs m´as signiﬁc pued produc ca´ıd sistem mism dej funcion bugs m´as peligr pon riesg segur sistem pued ser aprovech salt control autenticaci´on usuari sobrescrib privilegi rob informaci´on ransomwar ransomwar esenci form malwar tom cau tiv sistem comput afect solicit recompens recuperaci´on malwar restringir´ acces usuari dich compu tador encript archiv encuentr disc dur bloqu complet sistem mostr mensaj intenci´on forz usuari pag creador malwar recompens rem ver restriccion mod recuper acces comput rootkit rootkit tip softwar malici dise˜n acced control remot comput ser detect usuari program segur vez rootkit sid instal atac podr´ ejecut archiv acceder/rob informaci´on modiﬁc conﬁguraci nes sistem alter program ejempl program seguri dad pued detect rootkit instal program malici control comput part botnnet prevenci´on detecci´on rem ci´on tip malwar suel ser tare dif´ıcil dad naturalez sigil oper spywar spywar tip malwar cuy funci´on espi activ usuari conoc ejempl capt entrad tecl colect dat informaci´on cuent autent dat ﬁnancier troj hors troj hors tambi´ conoc troyan tip malwar disfraz s´ı mism archiv normal enga˜n usuari descarg instal troj pued darl atac acces remot comput infect vez gan acces ´est podr´ rob dat usuari instal program malici modiﬁc archi vos monitor activ usuari virus virus tip malwar capaz copi s´ı mism parc comput adjunt´ mism program cap´itul concept segur inform´at ejecut c´odig usuari inici dich program virus pue den ser utiliz rob informaci´on da˜n comput aloj y/o red cre botsnets rob diner mostr public worm worms comput encuentr tip m´as comun malwar esparc comput explot vulnerabil des sistem oper trav´ red worms caus da˜n red comput aloj consumi´endol ancho band sobrec gand servidor web worms comput pued ser clasiﬁc tip virus pos vari caracter´ıst disting mayor diferent worms habil aut replic esparc independient mientr virus requier activi dad human esparc ejecut program abrir archiv backdoor backdoor tip malwar prove puert traser sistem atac s´ı mism caus ning´un da˜n prove atac acces sistem mod ´est pued hac dese ´el keylogg ide detr´ malwar registr tod tecl presi nad usuari mod almacen dat provist inclu contrase˜n n´umer tarjet cr´edit cualqui infor maci´on sensibl remoteaccess troj rat tip malwar permit atac gan acces remot sistem realiz cualqui modiﬁcaci´on ´est dese m´etod detecci´on tod t´ecnic detecci´on malwar pued ser divid dos gran des categor´ı signaturebas behaviorbas vez exist dos concept fundamental relacion an´alisis cual clasiﬁc an´alisis est´at an´alisis din´am malwar an´alisis est´at nombr indic rea liz est´at ejecuci´on archiv mientr din´am program analiz ejecuci´on ejempl m´aquin virtual an´alisis est´at an´alisis est´at pued ser vist lectur c´odig fuent analiz sintaxis estructur archiv propiedad malwar intent infer determin si exist comport malici an´alisis est´at pued inclu divers t´ecnic m´etod detecci´on escane mediant antivirus antivirus herramient pued ser utiliz detecci´on softwar malici normal pos bas dat seccion c´odig sospech ﬁle signatur co mo as´ı tambi´ an´alisis concord patron comport identiﬁc archiv potencial malici heuristics hashing m´etod com´un utiliz identiﬁc un´ıvoc ment malwar trav´ program analiz softwar malici gener´ etiquet hash identiﬁc funcion hash m´as com´un utiliz encuentr messagedigest algorithm md secur hash algorithm sha b´usqued strings b´usqued extracci´on strings pued ofrec infor maci´on funcional program activ sospech ejempl si malwar cre archiv nombr dich archiv almac nad string binari si malwar resuelv nombr domini control atac nombr domini ser´ almacen string extracci´on strings binari pued conten referent nombr archiv urls nombr domini direccion ip comand ataqu clav registr etc si bien extracci´on s´ı mism otorg entend complet acerc prop´osit capac archi vo s´ı pued ofrec pist pued ser utiliz entend qu´ capaz malwar empaquet ofusc malwar creador malwar fre cuentement utiliz t´ecnic empaquet ofusc hac archiv m´as dif´ıcil detect analiz program ofusc escond ejecuci´on malwar program empaquet dos pertenec subconjunt ofusc cuy objet comprim program malici mod pued ser analiz archiv ejecut format portabl metadat format ar chiv pued revel informaci´on import acerc funcional program archiv format portabl execut pe utiliz sistem oper microsoft windows r⃝ archiv pos estructur dat informaci´on utiliz load sistem oper ejecuci´on archiv archiv pe contien enca bez inclu informaci´on acerc c´odig tip aplicaci´on funcion librer´ı requer requer espaci informaci´on pued arroj encabez gran valor an´alisis malwar linke librer´ı funcion form recopil informaci´on acerc ejecut analiz list funcion import c´odig librer´ı pued ser link est´at tiemp ejecuci´on cap´itul concept segur inform´at din´am realiz est´at encabez archiv pe podr´ı vers qu´ librer´ı sid inclu c´odig problem general m´etod m´as com´un utiliz atac linke tiemp ejecuci´on din´am mod librer´ı vay utiliz ser´ solicit program necesit desensambl t´ecnic desensambl disassembl cons mar c´odig compil binari convert c´odig assembl utiliz ingenier´ı invers mism lueg analiz infer l´ogic inten cion t´ecnic m´as com´un m´as conﬁabl an´alisis est´at an´alisis est´at menud llev cab ayud ciert herrami tas m´as all´a simpl an´alisis ´est pued prov informaci´on t´ecni cas protecci´on utiliz malwar principal ventaj an´alisis est´at posibil descubr posibl escenari comport vestig c´odig s´ı mism permit anal conoc mayor detall c´om ejecut malwar limit situaci´on actual inclus tip an´alisis m´as segur din´am c´odig necesit ejecut tan pon rieg sistem ejecuci´on m´as costos tiemp ello si bien result t´ecnic interes mism realiz ambi tes din´am mund real tal antivirus sin m´as bien prop´osit investigaci´on ejempl desarroll signatur malwar zeroday an´alisis din´am diferent an´alisis est´at an´alisis din´am permit observ verd der funcion malwar ejempl sol existent action string binari signiﬁc acci´on efect vay ejecut an´alisis din´am tambi´ form eﬁcient identiﬁc funcional malwar ejempl si malwar archiv log keylogg an´alisis din´am prove posibil localiz dich archiv sistem descubr qu´ tip registr almacen descifr d´ond envi dich informaci´on etc tip an´alisis intern dif´ıcil realiz s´ol t´ecnic an´alisis est´at si bien an´alisis din´am t´ecnic extrem poder deber´ı ser realiz vez complet an´alisis est´at mism pue pon riesg red sistem t´ecnic din´am tambi´ limit camin posibl pued lleg ejecut mien tras malwar est´a funcion ejempl cas malwar ejecut l´ıne com requier argument argument podr´ı ejecut diferent funcional program mientr sep cu´al opcion ser´ posibl examin din´am tod funcional pued realiz program m´etod detecci´on exist product softwar pued ser utiliz llev ca bo an´alisis din´am quiz´ m´as popul uso tecnolog´ı sandbox sanbox mecan segur permit ejecut program insegur ambient segur da˜n integr sistem real quier prot ger sandbox compon ambient virtualiz menud ofrec simulaci´on red servici ofrec mod segur ejecut soft war malwar dese test signaturebas vs behaviorbas m´etod an´alisis signaturebas m´etod est´at bas signatu res predeﬁn pued ser archiv ﬁngerprints ejempl hash gener das md sha strings est´at archiv metadat detecci´on malwar cas ser´ı llev cab siguient maner lleg nuev archiv sistem mism est´at analiz softwar antivirus si exist algun coincident cualqu signatur regis trad disp alert indic archiv consider sospech much vec tip an´alisis result suﬁcient dad malwar detect bas´ valor hash embarg creador malwar comenz desarroll program algun maner capac cambi signatur caracter´ıst malwar refer polimorﬁsm dad condici´on po lim´orﬁc pued ser detect sol utiliz t´ecnic detecci´on ba sad signatur nuev signatur sid cre situaci´on llev´ empres desarroll antivirus utiliz nuev t´ecnic detec ci´on an´alisis behaviorbas tambi´ conoc heuristicsbas m´etod observ c´om comport malwar ejecuci´on busc se˜nal comport malici modiﬁc archiv host clav registr establec conexion sospech etc s´ı mism accion represent necesari se˜nal malwar combin pued elev nivel sospech acerc archiv exist ciert umbral vel sospech deﬁn cualqui malwar exced nivel dispar´ alert nivel precisi´on detecci´on malwar bas comport behaviorbas depender´ implementaci´on m´as popular utiliz bient virtual ejempl sandbox ejecut archiv monitor comport si bien m´etod consum m´as tiemp m´as segur archiv chequ ejecuci´on principal ventaj m´et detecci´on bas comport behaviorbas teor´ı pued identiﬁc s´ol famili malwar sin tambi´ ataqu zeroday malwar cap´itul concept segur inform´at a´un sid identiﬁc virus polim´orﬁc embarg si cuen ta alto grad esparc malwar tal an´alisis result adecu trat malwar nuev polim´orﬁc neces machin learning mencion´ anterior detector malwar bas signatur pued ser efect si malwar conoc sid descubi algun herramient antivirus embarg result ´util detec ci´on aquell virus polim´orﬁc capac cambi signatur part precisi´on detector bas comport behaviorbas siem pre result ser adecu detecci´on dand result cantidad fals posit fals negat neces encontr nuev m´etod detecci´on est´a dad alto grad propagaci´on pos virus polim´orﬁc llev comenz explor nuev altern capac brind soluci´on problem m´etod detecci´on clasiﬁcaci´on utiliz t´ecnic dat mining machin learning arroj buen result camp resum pud ver desarroll cap´ıtul exist diferent moti vacion encuentr detr´ ataqu inform´at perpetu hackers encuentr gananci econ´om da˜n infraestructur satisfacci´on personal tambi´ realiz´ estudi diferent tip malwar c´om pued clasiﬁc ´ultim analiz cu´al t´ecnic detecci´on malwar utiliz hoy d´ıa qu´ t´ecnic bas machin learning dat mining result buen altern realizaci´on dich tare cap´ıtul encuentr continuaci´on tendr´ objet realiz estu dio indic qu´ cons proces dat mining cu´al etap compon tambi´ estudiar´ t´ecnic utiliz realiz prepr cesamient dat cap´itul dat mining tratamient dat ´ult a˜nos s´ol mostr import increment n´umer complej ataqu inform´at sin tambi´ cantid disponibi lid dat gener diari capac distint disciplin dat mining machin learning estad´ıst necesit abord desaf´ı cibersegur dat mining miner´ı dat extracci´on nombr indic miner´ıad conoc part gran cantid dat patron regl descubiert t´ecnic pued lueg ser utiliz realiz pre diccion respect nuev dat t´ecnic dat mining utiliz combi naci´on estad´ıst matem´at inteligent artiﬁcial reconoc patr nes mod agrup extra comport entidad dat mining camp interdisciplinari emple uso herramient an´ali sis model estad´ıst algoritm matem´at m´etod machin learning descubr patron v´al relacion gran conjunt dat caracter´ıst a´un sid descubiert result ´util encontr t´ecnic proced utiliz hackers vulner sistem obten informaci´on siguient cap´ıtul describir´ qu´ cons proces dat mining cu´al pas llev cab abordar´ tambi´ concept relaci nad tratamient preproces dat ´ultim explicar´ maner brev cu´al etap relacion machin learning qu´ com pon cap´itul dat mining tratamient dat proces dat mining comenz proces dat mining import determin qu´ quier logr implement´ conoc entend negocio business understanding fas cons investig objet requer decid si dat mining pued ser aplic alcanz determin qu´ tip dat deb ser recolect constru model despleg siguient fas cons b´asic entend dat dat undertanding conjunt dat inicial analiz estudi determin si apropi futur proces si calid dat deﬁcient pobr quiz´ necesari recolect nuev dat bas alg´un criteri m´as rigur siguient tres etap preparaci´on dat model eva luaci´on fas preparaci´on involucr tar preproces dat crud part ´est algoritm machin learning pued pro duc model etap preproces pued inclu activ quier construcci´on model much herramient preproces constru model intern dat transform hech prep raci´on dat model etap van man much vec requier iter result obten model sue len dar nuev perspect pued afect t´ecnic preproces eleg ´ultim fas quiz´ m´as import depend ´exit model etap evaluaci´on si etap evaluaci´on determin model pobr ser´ necesari reconsider proyect enter regres fas entend negoci identiﬁc objet m´as fruct´ıfer recolecci´on dat cambi si precisi´on model suﬁcient alta entonc siguient pas ser´ realiz desplieg normal pued signiﬁc integraci´on sistem mayor funcion sistem si mism obtenci´on dat figur proces dat mining obtenci´on dat comenz proces dat mining ser´ necesari obten dat deber´ ser recolect extra´ıd mund real dad dich dat podr´ ser obten diferent fuent posibl pos distint format format dat m´as conoc form m´as com´un recolect csv archiv csv comm separat valu format dat m´as com´un utiliz tambi´ format m´as antigu todav´ı prefer diferent sistem tip archiv pued conten diferent tip dat separ co</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.118</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Doc03.pdf</t>
+          <t>Doc02.pdf</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>deteccion clasif zeroday malwar traves dat mining machin learning tamañ dad constant increment numer complej ataqu informat mecan convencional deteccion result ineficient mayor escenari context present investig propon determin si tecnic dat mining machin learning pued ser utiliz efect entren algoritm capac detect clasific correct nuev tip amenaz machin learning malwar segur informat virus zeroday dat mining inteligent artificial red neuronal cuent result obten posibl afirm utiliz tecnic dat mining machin learning clasific famili malwar result efect cuant problemat deteccion cre cont conjunt dat consider grand algoritm podr logr result ampli superior tar clasif part conjunt mil muestr malwar constru dataset conform atribut consider relev famili dat implement ejecut distint algoritm machin learning clasif cuant deteccion malwar aplic mism tecnic tar clasif utiliz dat part program consider benign cual ser desensambl cuant tare clasif malwar pued extend trabaj realiz comprend mayor numer famili mayor cantid muestr aquell famili men observ deteccion malwar recomiend volv ejecut algoritm aqu implement cantid signific mayor archiv benign conjunt dat octubr august recordon silvi ruiz diaz licenciatur sistem dra claudi pons facult inform ´atic univers nacional plat detecci ´on clasificaci ´on zeroday malwar trav´ dat mining machin learning tesin grad autor august recordon silvi ruiz diaz director dra claudi pons octubr success ﬁnal failur fatal courag continu counts sir winston churchill univers nacional plat facult inform´at resum tesis licenciatur sistem detecci ´on clasificaci ´on zeroday malwar trav´ dat mining machin learning august recordon silvi ruiz diaz estudi sugier ´ult a˜nos increment exponencial ataqu inform´at caus organiz p´erd nanc orden millon mientr much compa˜n´ı dedic tiemp recurs desarroll antivirus complej veloc propagaci´on capac polim´orﬁc pos virus mod represent enorm desaf´ı empres motiv encontr nuev altern comun cient´ıﬁc dat descubiert utilizaci´on t´ecnic machin learning deep learning detecci´on clasiﬁcaci´on malwar pued ofrec opci´on m´as competit investigaci´on comenzar´ realiz extrac ci´on informaci´on conjunt dat compuest mil archiv asm bytes correspondient nuev famili distint malwar lueg medi implementaci´on algoritm machin learning intentar´ clasiﬁc malwar correspondient famili form complementari realizar´ clasiﬁcaci´on binari detecci´on malware/n malwar conjunt redu cid program benign ﬁnaliz as´ı elaboraci´on compar conclusion ´indic general resum introducci´on marc te´or visi´on hist´or riesg inherent tecnolog´ı ataqu inform´at ciberdelit avanc inteligent artiﬁcial gran capac almacen alto pod proces softwar requer resum concept segur inform´at hackers malwar tip malwar m´etod detecci´on an´alisis est´at an´alisis din´am signaturebas vs behaviorbas neces machin learning resum dat mining tratamient dat proces dat mining obtenci´on dat tip dat preproces dat selecci´on ingenier´ı atribut ingenier´ı atribut dat categ´or normalizaci´on atribut vi selecci´on atribut visualizaci´on dat resum concept machin learning deﬁnici´on surgimient machin learning etap proces machin learning conjunt dat tip estimaci´on prediccion inferent m´etod estimaci´on m´etod param´etr m´etod param´etr balanc precisi´on interpret evaluaci´on precisi´on model calid ajust quality ﬁt calid ajust clasiﬁcaci´on overﬁtting underﬁtting balanc sesg varianz clasiﬁcaci´on m´etod aprendizaj categorizaci´on m´etod aprendizaj resum model clasiﬁcaci´on logistic regression knearest neighbors na¨ıv bay support vector machin decision tre m´etod ensambl random forest xgboost red neuronal artiﬁcial red neuronal profund evaluaci´on model clasiﬁcaci´on matriz confusi´on receiv operating characteristic curv resum vii implementaci´on dat mining generaci´on dataset conjunt inicial dat archiv asm archiv bytes famili malwar an´alisis selecci´on caracter´ıst m´as relev extracci´on dat dlls seccion c´odig operaci´on proces archiv asm totalizaci´on ocurrent c´alcul proporcion determinaci´on featur m´as relev consolidaci´on result resum snapshots archiv asm captur snapshots entren red neuronal tama˜n archiv compression rat ngram detall t´ecnic conclusi´on an´alisis exploratori preproces dat estructur conten dataset valor nul dat faltant an´alisis valor nul resoluci´on valor nul distribuci´on valor import variabl selecci´on variabl estandarizaci´on atribut correlaci´on extracci´on atribut kernel pca resum clasiﬁcaci´on malwar algoritm clasiﬁcaci´on knearest neighbors implementaci´on m´etric evaluaci´on random forest implementaci´on viii m´etric evaluaci´on xgboost implementaci´on m´etric evaluaci´on artiﬁcial neural networks implementaci´on m´etric evaluaci´on compar conclusion detecci´on malwar obtenci´on desensambl archiv benign generaci´on nuev dataset an´alisis exploratori preproces implementaci´on soluci´on model bas tratamient sobreajust overﬁtting complej model tas aprendizaj learning rat par tempran early stop regularizaci´on pes weight regularization agreg dropout result obten xgboost soluci´on altern model result obten compar conclusion conclusion trabaj futur bibliograf´ı ix ´indic ﬁgur estad´ıst total ataqu malwar vs potencially unwant application pua almacen visi´on hist´or medi almacen compar ley moor proces dat mining sesg varianz conjunt dat etiquet nearest neighbor nearest neighbor maximizaci´on marg constituci´on ´arbol decici´on random forest c´om particion conjunt entren evoluci´on xgboost decision tre representaci´on visual red neuronal simpl extract archiv aguvpoccafmyvdyfgbasm extract archiv anoozdnbpxirmrbscjbyt proces archiv asm extracci´on dlls archiv asm extracci´on c´odig secci´on archiv asm extracci´on c´odig operaci´on archiv asm c´alcul totalizaci´on ocurrent determinaci´on featur m´as import famili top dlls m´as relev clas malwar top c´odig operaci´on m´as relev clas malwar top c´odig secci´on m´as relev clas malwar obtenci´on proporcion ocurrent relev archiv obtenci´on proporcion ocurrent relev archiv dlls c´odig operaci´on secci´on snapshots bytes famili malwar kfold utiliz clasiﬁc snapshots muestr result red neuronal clasiﬁc snapshots extracci´on tama˜n archiv tama˜n archiv compri mid proces extracci´on ngram top gram m´as relev clas malwar top gram m´as relev clas malwar top gram m´as relev clas malwar extracci´on featur archiv asm kde plot head kde plot ngram proc mov push mov kde plot ngram add pop kde plot secci´on seg import variabl correlaci´on pearson an´alisis component kernel pca matriz confusi´on nearest neighbors roc nearest neighbors matriz confusi´on random forest roc random forest matriz confusi´on xgboost roc xgboost precisi´on accuracy model clasiﬁcaci´on famili p´erd loss model clasiﬁcaci´on famili matriz confusi´on artiﬁcial neural networks roc artiﬁcial neural networks correlaci´on pearson clasiﬁcaci´on malware/n malwar import variabl clasiﬁcaci´on malware/n malwar an´alisis component kernel pca clasiﬁcaci´on malw re/n malwar precisi´on accuracy model clasiﬁcaci´on malware/n malwar p´erd loss model clasiﬁcaci´on malware/n malwar conﬁguraci´on hip par´ametr clasiﬁcaci´on malware/n malwar precisi´on accuracy model clasiﬁcaci´on malware/n malwar p´erd accuracy model clasiﬁcaci´on malware/n malwar matriz consuﬁc´on model clasiﬁcaci´on malware/n malwar roc model clasiﬁcaci´on malware/n malwar xi precisi´on accuracy model clasiﬁcaci´on malware/n malwar utiliz xgboost error model clasiﬁcaci´on malware/n malwar utiliz xgboost matriz confusi´on clasiﬁcaci´on malware/n malwar utiliz xgboost roc clasiﬁcaci´on malware/n malwar utiliz xgboost cap´itul introducci´on viv tecnolog´ı cumpl rol import vid person utiliz internet tip activ tar sensibl pag cuent realiz compr consult ban cari manten contact amistad familiar ver pel´ıcul leer notici frecuent llev instal distint aplic disposit acept t´ermin condicion siti compa˜n´ı sab realment qu´ dat acces qu´ ´est ser´ usad mism mod inadvertid diari transmit informaci´on sensi ble contrase˜n dat tarjet cr´edit canal conﬁ segur nadi est´a escuch form simil compart inform ci´on personal ubicaci´on fot red social rar deteni´endon pens lad pued hab algui malintencion cre perﬁl activ n´umer aplic util internet lug dud ex tens bas mism softwar softwar disposit servidor equip intermedi conect softwar mencion conﬁ diari embarg ´est tod construcci´on human suscept error vulner escenari previst m´as a´un error vulner vez detect llev tiemp correg cas depend compa˜n´ı usuari sistem aplic actualiz solucion problem context hackers person malintencion aprovech vulner softwar y/o conﬁanz person desplieg co nocimient herramient llev cab objet quiz´ m´as com´un herramient malwar t´ermin malwar malicious softwar program cuy ﬁn compromet cualqui comput disposit intelig dise˜n hack ﬁnes malici rob informaci´on conﬁ dencial penetr red da˜n infraestructur cr´ıtic etc program pued cap´itul introducci´on inclu virus worms troyan spywar bots rootkits ransomwar seg´un prestigi institut dedic segur avtest d´ıa produc m´as nuev program malici malwar potentially unwant applications pua increment ´ult a˜nos cercan represent p´erd millonari compa˜n´ı gobi siti cyber security ventur estim p´erd anual da˜n relacion cibercrim alcanzar´ı mil millon d´olar nivel global dat realment alarm representar´ desaf´ı human deber´ enfrent pr´oxim d´ec empres dedic desarroll antivirus tal norton avg mcafe kaspersky hac mejor esfuerz hac frent problem´ati ca tradicional program utiliz m´etod signaturebas detecci´on malwar signatur secuenci cort bytes sirv identiﬁc malwar conoc embarg m´etod capaz prov form identiﬁc ataqu zeroday malwar polim´orﬁc utiliz t´ecni cas ofuscaci´on capac cre cient variedad si mism dad cuent registr mism ´ult a˜nos grup investig junt comun antimalwar report utiliz t´ecnic machin learning deep learning an´alisis detecci´on malwar exist dos t´ecnic pued aplic decid si c´odig program benign malign rea liz an´alisis est´at din´am t´ecnic an´alisis est´at eje cut c´odig sin s´ol examin estructur propiedad dat binari t´encic an´alisis din´am cambi ejecut c´odig observ comport ejecuci´on red ambient trol ejempl sandbox sistem detecci´on malwar utiliz an´alisis est´at din´am inclus ambos prop´osit investigaci´on objet central evalu efectivi dad utiliz distint t´ecnic an´alisis est´at relacion machin lear ning dat mining detecci´on clasiﬁcaci´on malwar aplic t´ecnic detecci´on tempran malwar pued result particul util identiﬁc ataqu zeroday zeroday malwar desconoc dec nue vo tip c´odig malici a´un cre parch revision resuelv fall segur proces clasiﬁcaci´on detecci´on ser´ llev cab trabaj cons tar´ divers etap comenz obtenci´on dat ´est ser´ cap´itul introducci´on compon conjunt part estar´ conform casi mues tras archiv malign desensambl vez hech tendr´ lug cons trucci´on dataset part extracci´on caracter´ıst m´as relev consider mayor inter´ conjunt dat etap den min dat mining consider quiz´ m´as import m´as tiemp demandar´ tod investigaci´on dataset gener deber´ ser somet distint t´ecnic preproces depur preparaci´on pued ser utiliz algoritm machin learning final realizar´ construcci´on ajust model clasiﬁcaci´on detecci´on sider apropi dich tare result obten ser´ analiz compar emp´ıric bas´ distint m´etric part marc te´or cap´itul visi´on hist´or avanc tecnolog´ı ´ult tiemp tra´ıd consig grand ben ﬁci poblaci´on usuari general avanc camp medicin segur intercomunicaci´on person encuentr f´ısic distint lugar planet inclus permit aparici´on nuev mer cad gran potencial crecimient embarg beneﬁci vien acompa˜n riesg casi maner inherent adem´ oportuni dad tambi´ conllev amenzaz principal industri softwar amenaz malwar increment exponencial haci´endol s´ol m´as soﬁstic complej sin tambi´ m´as dif´ıcil detect siguient cap´ıtul dar´ brevement marc hist´or relacion ries go tecnolog´ı ataqu inform´at mientr m´as adel abor dar´ avanc camp inteligent artiﬁcial ´ult a˜nos riesg inherent tecnolog´ı nuev tecnolog´ı prop´osit otorg diferent beneﬁci person logr exit embarg tambi´ exist cons cuenci advers deriv progres seg´un siti welivesecurity eset ´est riesg asoci tecnolog´ı inteligent artiﬁcial ai sid denomin mayor avanc tecnol´ogicod ´ult a˜nos comenz mostr dici peligr ejempl fak news notici fals deep fak im´agen person sid alter digital as´ı ca racter´ıst a´un vislumbr complet interfac computadoracerebr h´ıperautomatizaci´on quier dec combin ci´on rob´ot inteligent articial cap´itul visi´on hist´or tecnolog´ı m´ovil quint generaci´on nuev tecnolog´ı dep den infraestructur alta veloc embarg dad condicion actual pronostic d´eﬁcits signiﬁc capac cobertur inversion red telecomun desaf´ı estar´ cons tru infraestructur modern adem´ introduc sistem segur conﬁabl dentr capac existent computaci´on cu´ant computaci´on cu´ant podr´ı reduc dr´asticam tiemp necesari resolv problem matem´at actual ment apoy t´ecnic cifr import cuent capac proces podr´ı volv impr´act algoritm criptogr´aﬁc actual correr´ı rieg inutiliz mayor´ı sistem actual infraestructur cr´ıtic segur dat computaci´on nub computaci´on nub potencial desarroll distint sector expand acces tecnol´og ´ar remot as´ı vincul tecnolog´ı mism tiemp mayor cantid dat aloj nub empres est´an acumul vez m´as informaci´on personal cre potencial riesg privac segur dat adem´ riesg asoci tecnolog´ı tambi´ destac aspect lacion cibersegur ataqu cibern´et adopt m´ultipl form est´an extend inclus ambient f´ısic ciber taqu infraestructur cr´ıtic comienz aparec normal industri energ´et salud transport afect inclus ciudad enter mientr tecnolog´ı camp encuentr permanent crecimient tambi´ cibercrim ataqu perpetr grup vez m´as ganiz cuent gran disponibil herramient cre tal ﬁnes probabil baj ser detect enjui ciad ataqu inform´at ciberdelit ´ultim d´ec mostr ten import increment ataqu form´at raz´on tal crecimient deb cambi motivaci´on detr´ ataqu hac a˜nos principal objet ver qu´ tan lej pod´ı lleg embarg dej ser cas actual ataqu escond gran gam interes siend r´edit econ´om m´as prepond rant inclus empez realiz ataqu ﬁn rob informaci´on y/o desestabiliz ataqu inform´at ciberdelit siguient gr´aﬁc permit observ clar aument n´umer ata ques registr a˜no correspondient ´ultim d´ec figur estad´ıst total ataqu avtest institut m´as reconoc dedic teste produc tos segur registr infeccion d´ıa siend malwar tip ataqu conoc m´as com´un gr´aﬁc encuentr continuaci´on muestr estad´ıst ´ultim a˜no correspondient dos principal tip ataqu cap´itul visi´on hist´or figur malwar vs potencially unwant application pua ciberataqu s´ol impact industri softwar sin tambi´ econom´ı empres gobi deb respond dich ataqu avanc inteligent artiﬁcial t´ermin inteligent artiﬁcial acu˜n m´as a˜nos despu´ avanc camp sid sorprendent hac poc a˜nos inteligent artiﬁcial parec´ı asunt futur dif´ıcil podr´ı altern d´ıa d´ıa cort plaz embarg hoy realid aspir revolucion vari aspect socied pr´ox a˜nos avanc inteligent artiﬁcial hor super capac human activ ajedrez jueg go traducci´on lleg ahor titu lar inteligent artiﬁcial est´a present industri men d´ec raz´on reci´ ahor empiez vers aplic utiliz requier tres cos alto pod c´alcul gran capac almacen softwar apropi as´ı mism tecnolog´ı ten´ı ten cost acept gran capac almacen pilar m´as import dat scienc capac almacen grand vol´umen informaci´on ser guard maner ﬁabl transfer grand veloc avanc inteligent artiﬁcial figur almacen visi´on hist´or imag anterior pued ver izquierd unid almacen meg bytes siend carg avi´on unidad alquil d´olar mes si ajust preci inﬂaci´on casi a˜nos despu´ meg bytes dobl capac vend´ı d´olar actual apen a˜nos despu´ valor pued acced disc r´ıgid prove vec almacen embarg cienci est´a explor nuev direccion promet revolucion mod almacen informaci´on utilizaci´on adn disposit s´ol minimiz dr´astic tama˜n sin tambi´ aument capac almacen exponencial siguient cuadr present compar disc r´ıgid memori ﬂash utiliz ci´on adn cap´itul visi´on hist´or figur medi almacen compar alto pod proces pod proces grand vol´umen dat actual necesit gran pod c´omput pod proces ley moor sig observ fech permit pon perspect aument pod c´alcul permit ver c´om hac poc a˜nos comput lej logr capac computacional pos actual figur ley moor ley moor establec b´asic capac c´omput duplic diecioch mes resum softwar requer concept comput inteligent surgi´ prueb alan turing plante´ entonc siguient quinc veint a˜nos tuvi ron lug esfuerz camp tal primer robots compu tador mark perceptron capaz aprend nuev habil ensay error embarg ning´un avanc substancial deep blu derrot´ campe´on ajedrec garry kasparov part a˜nos actual machin learning inteligent artiﬁcial ´ar relacion empez crec vez m´as adopt tip cam pos reﬂexion acerc caus detr´ demor explosi´on disciplin mencion carenci materi proces alma cenamient tambi´ destac falt lenguaj programaci´on acord sistem bas dat proces paralel distribu herramient resum present cap´ıtul mencion´ c´om avanc tecnol´og impact vid person riesg inherent ´est tra consig tambi´ abord´ tem ataqu inform´at cibercrim actual c´om ´est ido increment evolucion maner alarm ´ultim estudi´ avanc inteligent artiﬁcial ´ult a˜nos cu´al pilar explicar´ı qu´ uso ven populariz ´ult a˜nos pr´oxim cap´ıtul ver´ concept relacion segur form´at distint motiv person comet ataqu form´at cu´al m´etod pued ser utiliz detect ataqu test turing estipul si person interactu m´aquin pued dars cuent ´est person entonc constitu evident m´aquin consider inteligent cap´itul concept segur inform´at habl segur inform´at reﬁer pr´actic preserv defend aquel softwar comput servidor disposit m´ovil sist mas electr´on red bas dat ataqu malici ello impor tant conoc s´ol concept relacion dich tem sin tambi´ cu´al proces protocol m´etod herramient pued utiliz hac frent dich amenaz siguient cap´ıtul describir´ ciert concept fundamental relacion dos segur inform´at comenzar´ describ c´om pued clasiﬁc diferent tip hackers descripci´on distint clas malwar pued encontr ﬁnalment cu´al m´etod detect program hackers utiliz t´ermin ingl´es hack refer aquell person expert comput habil conoc t´ecnic espec´ıﬁc resolv problem mism pued ser clasiﬁc siguient categor´ı whit hat hackers expert segur utiliz distint t´ecnic co mo penetration testing evalu tan segur informaci´on organizaci´on back hat hackers categor´ı m´as gen´er refer hackers general grup encuentr aquell cre virus inﬁltran red etc script kiddi t´ermin derogatori usa refer aqu llos hackers poc conoc simplement utiliz herramient cre algui m´as cap´itul concept segur inform´at hacktivists atac motiv razon pol´ıtic y/o tambi´ religi des expon person activ il´ıcit hackers patrocin hackers contrat gobi po nen disposici´on recurs ilimit atac organiz cion hackers esp´ıas contrat empres objet inﬁltrar com petenci rob informaci´on ciberterror hackers motiv creenci pol´ıtic religi intent cre mied caos socied atac infraestructur clav lad prolifer comun hackers compart conoc adem´ distribu herramient form gratuit pag clus suel encontr public ofrec diner cambi des cubrimient nuev vulner determin sistem oper soft war malwar palabr malwar provien abreviaci´on malicious softwar pued ser utiliz compromet funcion sistem rob informaci´on salt trol acces cualqui form caus da˜n host est´a ejecut tip malwar malwar pued divid distint categor´ı depend prop´osi continuaci´on describ clas adwar cuy abreviatur provien advertisingsupport softwar tip malwar cuy ´unic prop´osit visualizaci´on public ejempl com´un podr´ı ser utilizaci´on ventan emergent siti web aqu llos ejecut softwar much vec aplic ofrec ver sion gratuitasper est´an atest public adwar patrocin empres public utiliz co mo herramient gener gananci monetari bot bots program escrit ejecut determin oper autom´at mientr bots cre prop´osit da˜nin jueg l´ıne subast internet concurs l´ıne etc uti lizaci´on ﬁnes malici increment bots pued ser utiliz botnets conjunt comput control tercer efectu ataqu ddos distribut denial servic spambots malwar muestr public siti web web spiders recopil inform ci´on servidor distribuci´on malwar disfraz result dos b´usqued siti descarg bug context softwar bug fall program produc result des fall normal result error hu man general encuentr c´odig fuent compil program ciert bugs menor simplement afectar´ funcion program pued llev tiemp ser detect embarg bugs m´as signiﬁc pued produc ca´ıd sistem mism dej funcion bugs m´as peligr pon riesg segur sistem pued ser aprovech salt control autenticaci´on usuari sobrescrib privilegi rob informaci´on ransomwar ransomwar esenci form malwar tom cau tiv sistem comput afect solicit recompens recuperaci´on malwar restringir´ acces usuari dich compu tador encript archiv encuentr disc dur bloqu complet sistem mostr mensaj intenci´on forz usuari pag creador malwar recompens rem ver restriccion mod recuper acces comput rootkit rootkit tip softwar malici dise˜n acced control remot comput ser detect usuari program segur vez rootkit sid instal atac podr´ ejecut archiv acceder/rob informaci´on modiﬁc conﬁguraci nes sistem alter program ejempl program seguri dad pued detect rootkit instal program malici control comput part botnnet prevenci´on detecci´on rem ci´on tip malwar suel ser tare dif´ıcil dad naturalez sigil oper spywar spywar tip malwar cuy funci´on espi activ usuari conoc ejempl capt entrad tecl colect dat informaci´on cuent autent dat ﬁnancier troj hors troj hors tambi´ conoc troyan tip malwar disfraz s´ı mism archiv normal enga˜n usuari descarg instal troj pued darl atac acces remot comput infect vez gan acces ´est podr´ rob dat usuari instal program malici modiﬁc archi vos monitor activ usuari virus virus tip malwar capaz copi s´ı mism parc comput adjunt´ mism program cap´itul concept segur inform´at ejecut c´odig usuari inici dich program virus pue den ser utiliz rob informaci´on da˜n comput aloj y/o red cre botsnets rob diner mostr public worm worms comput encuentr tip m´as comun malwar esparc comput explot vulnerabil des sistem oper trav´ red worms caus da˜n red comput aloj consumi´endol ancho band sobrec gand servidor web worms comput pued ser clasiﬁc tip virus pos vari caracter´ıst disting mayor diferent worms habil aut replic esparc independient mientr virus requier activi dad human esparc ejecut program abrir archiv backdoor backdoor tip malwar prove puert traser sistem atac s´ı mism caus ning´un da˜n prove atac acces sistem mod ´est pued hac dese ´el keylogg ide detr´ malwar registr tod tecl presi nad usuari mod almacen dat provist inclu contrase˜n n´umer tarjet cr´edit cualqui infor maci´on sensibl remoteaccess troj rat tip malwar permit atac gan acces remot sistem realiz cualqui modiﬁcaci´on ´est dese m´etod detecci´on tod t´ecnic detecci´on malwar pued ser divid dos gran des categor´ı signaturebas behaviorbas vez exist dos concept fundamental relacion an´alisis cual clasiﬁc an´alisis est´at an´alisis din´am malwar an´alisis est´at nombr indic rea liz est´at ejecuci´on archiv mientr din´am program analiz ejecuci´on ejempl m´aquin virtual an´alisis est´at an´alisis est´at pued ser vist lectur c´odig fuent analiz sintaxis estructur archiv propiedad malwar intent infer determin si exist comport malici an´alisis est´at pued inclu divers t´ecnic m´etod detecci´on escane mediant antivirus antivirus herramient pued ser utiliz detecci´on softwar malici normal pos bas dat seccion c´odig sospech ﬁle signatur co mo as´ı tambi´ an´alisis concord patron comport identiﬁc archiv potencial malici heuristics hashing m´etod com´un utiliz identiﬁc un´ıvoc ment malwar trav´ program analiz softwar malici gener´ etiquet hash identiﬁc funcion hash m´as com´un utiliz encuentr messagedigest algorithm md secur hash algorithm sha b´usqued strings b´usqued extracci´on strings pued ofrec infor maci´on funcional program activ sospech ejempl si malwar cre archiv nombr dich archiv almac nad string binari si malwar resuelv nombr domini control atac nombr domini ser´ almacen string extracci´on strings binari pued conten referent nombr archiv urls nombr domini direccion ip comand ataqu clav registr etc si bien extracci´on s´ı mism otorg entend complet acerc prop´osit capac archi vo s´ı pued ofrec pist pued ser utiliz entend qu´ capaz malwar empaquet ofusc malwar creador malwar fre cuentement utiliz t´ecnic empaquet ofusc hac archiv m´as dif´ıcil detect analiz program ofusc escond ejecuci´on malwar program empaquet dos pertenec subconjunt ofusc cuy objet comprim program malici mod pued ser analiz archiv ejecut format portabl metadat format ar chiv pued revel informaci´on import acerc funcional program archiv format portabl execut pe utiliz sistem oper microsoft windows r⃝ archiv pos estructur dat informaci´on utiliz load sistem oper ejecuci´on archiv archiv pe contien enca bez inclu informaci´on acerc c´odig tip aplicaci´on funcion librer´ı requer requer espaci informaci´on pued arroj encabez gran valor an´alisis malwar linke librer´ı funcion form recopil informaci´on acerc ejecut analiz list funcion import c´odig librer´ı pued ser link est´at tiemp ejecuci´on cap´itul concept segur inform´at din´am realiz est´at encabez archiv pe podr´ı vers qu´ librer´ı sid inclu c´odig problem general m´etod m´as com´un utiliz atac linke tiemp ejecuci´on din´am mod librer´ı vay utiliz ser´ solicit program necesit desensambl t´ecnic desensambl disassembl cons mar c´odig compil binari convert c´odig assembl utiliz ingenier´ı invers mism lueg analiz infer l´ogic inten cion t´ecnic m´as com´un m´as conﬁabl an´alisis est´at an´alisis est´at menud llev cab ayud ciert herrami tas m´as all´a simpl an´alisis ´est pued prov informaci´on t´ecni cas protecci´on utiliz malwar principal ventaj an´alisis est´at posibil descubr posibl escenari comport vestig c´odig s´ı mism permit anal conoc mayor detall c´om ejecut malwar limit situaci´on actual inclus tip an´alisis m´as segur din´am c´odig necesit ejecut tan pon rieg sistem ejecuci´on m´as costos tiemp ello si bien result t´ecnic interes mism realiz ambi tes din´am mund real tal antivirus sin m´as bien prop´osit investigaci´on ejempl desarroll signatur malwar zeroday an´alisis din´am diferent an´alisis est´at an´alisis din´am permit observ verd der funcion malwar ejempl sol existent action string binari signiﬁc acci´on efect vay ejecut an´alisis din´am tambi´ form eﬁcient identiﬁc funcional malwar ejempl si malwar archiv log keylogg an´alisis din´am prove posibil localiz dich archiv sistem descubr qu´ tip registr almacen descifr d´ond envi dich informaci´on etc tip an´alisis intern dif´ıcil realiz s´ol t´ecnic an´alisis est´at si bien an´alisis din´am t´ecnic extrem poder deber´ı ser realiz vez complet an´alisis est´at mism pue pon riesg red sistem t´ecnic din´am tambi´ limit camin posibl pued lleg ejecut mien tras malwar est´a funcion ejempl cas malwar ejecut l´ıne com requier argument argument podr´ı ejecut diferent funcional program mientr sep cu´al opcion ser´ posibl examin din´am tod funcional pued realiz program m´etod detecci´on exist product softwar pued ser utiliz llev ca bo an´alisis din´am quiz´ m´as popul uso tecnolog´ı sandbox sanbox mecan segur permit ejecut program insegur ambient segur da˜n integr sistem real quier prot ger sandbox compon ambient virtualiz menud ofrec simulaci´on red servici ofrec mod segur ejecut soft war malwar dese test signaturebas vs behaviorbas m´etod an´alisis signaturebas m´etod est´at bas signatu res predeﬁn pued ser archiv ﬁngerprints ejempl hash gener das md sha strings est´at archiv metadat detecci´on malwar cas ser´ı llev cab siguient maner lleg nuev archiv sistem mism est´at analiz softwar antivirus si exist algun coincident cualqu signatur regis trad disp alert indic archiv consider sospech much vec tip an´alisis result suﬁcient dad malwar detect bas´ valor hash embarg creador malwar comenz desarroll program algun maner capac cambi signatur caracter´ıst malwar refer polimorﬁsm dad condici´on po lim´orﬁc pued ser detect sol utiliz t´ecnic detecci´on ba sad signatur nuev signatur sid cre situaci´on llev´ empres desarroll antivirus utiliz nuev t´ecnic detec ci´on an´alisis behaviorbas tambi´ conoc heuristicsbas m´etod observ c´om comport malwar ejecuci´on busc se˜nal comport malici modiﬁc archiv host clav registr establec conexion sospech etc s´ı mism accion represent necesari se˜nal malwar combin pued elev nivel sospech acerc archiv exist ciert umbral vel sospech deﬁn cualqui malwar exced nivel dispar´ alert nivel precisi´on detecci´on malwar bas comport behaviorbas depender´ implementaci´on m´as popular utiliz bient virtual ejempl sandbox ejecut archiv monitor comport si bien m´etod consum m´as tiemp m´as segur archiv chequ ejecuci´on principal ventaj m´et detecci´on bas comport behaviorbas teor´ı pued identiﬁc s´ol famili malwar sin tambi´ ataqu zeroday malwar cap´itul concept segur inform´at a´un sid identiﬁc virus polim´orﬁc embarg si cuen ta alto grad esparc malwar tal an´alisis result adecu trat malwar nuev polim´orﬁc neces machin learning mencion´ anterior detector malwar bas signatur pued ser efect si malwar conoc sid descubi algun herramient antivirus embarg result ´util detec ci´on aquell virus polim´orﬁc capac cambi signatur part precisi´on detector bas comport behaviorbas siem pre result ser adecu detecci´on dand result cantidad fals posit fals negat neces encontr nuev m´etod detecci´on est´a dad alto grad propagaci´on pos virus polim´orﬁc llev comenz explor nuev altern capac brind soluci´on problem m´etod detecci´on clasiﬁcaci´on utiliz t´ecnic dat mining machin learning arroj buen result camp resum pud ver desarroll cap´ıtul exist diferent moti vacion encuentr detr´ ataqu inform´at perpetu hackers encuentr gananci econ´om da˜n infraestructur satisfacci´on personal tambi´ realiz´ estudi diferent tip malwar c´om pued clasiﬁc ´ultim analiz cu´al t´ecnic detecci´on malwar utiliz hoy d´ıa qu´ t´ecnic bas machin learning dat mining result buen altern realizaci´on dich tare cap´ıtul encuentr continuaci´on tendr´ objet realiz estu dio indic qu´ cons proces dat mining cu´al etap compon tambi´ estudiar´ t´ecnic utiliz realiz prepr cesamient dat cap´itul dat mining tratamient dat ´ult a˜nos s´ol mostr import increment n´umer complej ataqu inform´at sin tambi´ cantid disponibi lid dat gener diari capac distint disciplin dat mining machin learning estad´ıst necesit abord desaf´ı cibersegur dat mining miner´ı dat extracci´on nombr indic miner´ıad conoc part gran cantid dat patron regl descubiert t´ecnic pued lueg ser utiliz realiz pre diccion respect nuev dat t´ecnic dat mining utiliz combi naci´on estad´ıst matem´at inteligent artiﬁcial reconoc patr nes mod agrup extra comport entidad dat mining camp interdisciplinari emple uso herramient an´ali sis model estad´ıst algoritm matem´at m´etod machin learning descubr patron v´al relacion gran conjunt dat caracter´ıst a´un sid descubiert result ´util encontr t´ecnic proced utiliz hackers vulner sistem obten informaci´on siguient cap´ıtul describir´ qu´ cons proces dat mining cu´al pas llev cab abordar´ tambi´ concept relaci nad tratamient preproces dat ´ultim explicar´ maner brev cu´al etap relacion machin learning qu´ com pon cap´itul dat mining tratamient dat proces dat mining comenz proces dat mining import determin qu´ quier logr implement´ conoc entend negocio business understanding fas cons investig objet requer decid si dat mining pued ser aplic alcanz determin qu´ tip dat deb ser recolect constru model despleg siguient fas cons b´asic entend dat dat undertanding conjunt dat inicial analiz estudi determin si apropi futur proces si calid dat deﬁcient pobr quiz´ necesari recolect nuev dat bas alg´un criteri m´as rigur siguient tres etap preparaci´on dat model eva luaci´on fas preparaci´on involucr tar preproces dat crud part ´est algoritm machin learning pued pro duc model etap preproces pued inclu activ quier construcci´on model much herramient preproces constru model intern dat transform hech prep raci´on dat model etap van man much vec requier iter result obten model sue len dar nuev perspect pued afect t´ecnic preproces eleg ´ultim fas quiz´ m´as import depend ´exit model etap evaluaci´on si etap evaluaci´on determin model pobr ser´ necesari reconsider proyect enter regres fas entend negoci identiﬁc objet m´as fruct´ıfer recolecci´on dat cambi si precisi´on model suﬁcient alta entonc siguient pas ser´ realiz desplieg normal pued signiﬁc integraci´on sistem mayor funcion sistem si mism obtenci´on dat figur proces dat mining obtenci´on dat comenz proces dat mining ser´ necesari obten dat deber´ ser recolect extra´ıd mund real dad dich dat podr´ ser obten diferent fuent posibl pos distint format format dat m´as conoc form m´as com´un recolect csv archiv csv comm separat valu format dat m´as com´un utiliz tambi´ format m´as antigu todav´ı prefer diferent sistem tip archiv pued conten diferent tip dat separ co</t>
+          <t>deteccion patolog señal biomed mediant tecnic machin learning bergamini mar loren liberczuk sergi javi sergioliberczuk@uaiedu mariabergamini@uaiedu univers abiert interamerican –centr altos estudi tecnolog informat caeti resum proces señal biomed import relev diagnost tempran prevencion enfermedad electrocardiogram ecg estudi invas baj cost brind inform valios activ electr cardiac analisis señal estudi patron asoci condicion anormal funcion objet principal proyect desarroll tecnic algoritm analisis model clasif segment señal electrocardiograf fin pued ser aplic tiemp real pod asi dar soport deteccion tempran event patolog especif propon diseñ algoritm proces ecg enfoqu bayesian objet sintoniz parametr model dinam permit sintesis señal ecg registr proces isquemi infart asim aplic tecnic machin learning proces parametr configur sistem asistent medic diagnost automat patolog context investig aqu descrit surg colabor centr altos estudi tecnolog informat caeti facult tecnolog informat univers abiert interamerican uai conjunt institut argentin matemat albert calderon iam dependient conicet institut ingeni biomed iibm univers buen air caeti concentr proyect investig basic aplic pretend contribu gener herramient informat tecnolog dar solucion problemat social human objet centr promov insercion tecnolog informat asunt multidisciplinari impact social introduccion señal electrocardiogram registr activ electr corazon mostr variacion temporal potencial electr registr part electrod dispuest convenient superfici torax morfolog registr interpret part deteccion ondas caracterist asi divers calcul surg deteccion dich punt caracterist permit diagnost distint patolog arritmi cardiac cardiopat isquem infart y/o alter conduccion auricul ventricul dich patolog pued ser detect antel mediant adecu analisis señal ecg martis et estudi ecg amplitud onda interval temporal patron sid objet intens investig proporcion inform sustancial funcional corazon extraccion señal cardiac alta resolu electrocardiogram ruidos sig siend problem interes comun ingeni biomed pes ric literatur camp todav much aplic clinic carec herramient confiabl proces extra component ric inform ecg encuentr inmers potenci ruid consider pos baj relacion señal ruid snr señal estacionari filtr wien tecnic filtr lineal minim error cuadrat medi aplic mod causal domini temporal mod causal domini frecuencial embarg esper filtr wien de buen result señal estacionari tecnic estadist analisis component principal pca analisis component independient ica red neuronal nns utiliz constru model estadist señal ruid permit elimin este band descart component correspondient exclus dich ruid aunqu esquem poder filtr model utiliz bastant arbitrari pued ser extrem sensibl pequeñ cambi señal ruid trabaj recient propuest paradigm filtr bayesian compresion señal biolog general ecg particul filtr ruid mism sayadi et sameni et marc pued ser utiliz eficaz segment extraccion caracterist falt adecu comprension dinam electr cardiac hac dificil optimiz tecnic computacional emple obten consecuent aument numer fals posit baj especif moment emit diagnost asist comput solucion tip problem sid creacion model matemat activ electr cardiac permit recr divers complej situacion electrofisiolog maner pued sintetiz conjunt señal ecg entren valid sistem diagnost asist kundu gupt mcsharry et desarroll model simul gran precision divers traz ecg correspondient condicion fisiolog patolog cardiac tendenci actual proces señal biomed dirig aplic tecnic inteligent artificial red neuronal algoritm genet tecnic bas logic difus fuzzy logic engin ahsan et tamil et metod aprendizaj profund red neuronal convolucional cnn pued extra automat caracterist distint demostr eficaci reconoc clasif señal biomed recient river gonzalez aplic red neuronal artificial tare clasif ecg transform señal imagen usaron entrad aprendizaj lad labati et desaroll enfoqu biometr bas red neuronal convolucional cnn señal ecg buen rendimient usand dat control control much tar analisis dat problem real implic estim cantidad desconoc part observ frecuent cuent conoc previ fenomen model posibl formul distribu previ cantidad desconoc funcion verosimilitud relacion cantidad observ dentr context tod inferent cantidad desconoc bas distribu posterior obten teorem bay baj ciert hipotesis posibl deriv expresion analit exact calcul distribu posterior recursion conoc extend filtr kalm suposicion necesari aplic filtr kalm podr result restrict acuerd camp interes problem aparec baj nombr diferent inclu filtr bayesian filtr optim lineal filtr estocast inferent aprendizaj line filtr bayesian marc trat problem dinam variabl dat respond dos proces estocast implement numer cas model lineal general requier uso tecnic integr numer filtr particul pf esencial clas metod secuencial mont carl punt soport llam particul evolucion tiemp acuerd nucle transicion proces desconoc filtr estocast problem invers dad observ recopil medicion observ pas tiemp discret necesari deduc real produc med perspect problem pued interpret problem aprendizaj mape invers encontr entrad desconoc funcion mape produc dat sal med esquem conduc algoritm restaur señal ecg ruid part conjunt observ ruid ambigu liberczuk et propon nuev metod encontr parametr mejor represent determin lat liberczuk bergamini clasific lat espaci parametr fisiolog patolog altas tas performanc clasif ademas desarroll metod elimin ruid señal ecg bas tecnic filtr mont carl estim valor señal filtr part observ ruid simul diferent snr bergamini liberczuk lin investig desarroll desarroll investig orient principi sintoniz valid model computacional comport electrofisiolog corazon bas model mcsharry et reformul grup incorpor modif consider permit recr situacion asoci cambi event cardiac proces isquem infart tecnic proces utiliz encuentr dentr paradigm filtr bayesian implement tecnic filtr lineal lineal correct extraccion inform deteccion patron event busc metod proces alto rendimient señal baj snr requier model adecu dinam sistem permit infer sistem part observ med secuencial utiliz principi mencion model mcsharry bas supon señal cons sum funcion gaussian caracteriz ubic amplitud ancho asi model qued depend conjunt bien determin parametr conjunt parametr pued utiliz sol esquem filtr sin aplic compresion clustering y/o clasif patron señal clifford et analiz posibil plant nuev espaci bas descomposicion señal distint ondas senoidal mod empir captur diferent frecuenci distint nivel inform rilling et huang et enfoqu ser empir independient cualqui model matemat consider casi requier ningun hipotesis previ caracterist distint mod empir podr evidenci patron caracterist event cardiac experiment red neuronal red neuronal convolucional red neuronal recurrent fin logr automat clasif lat inputs dich red conform caracterist obten lat señal ecg mediant tecnic proces analisis descrit anterior señal tom bas dat valid internacional bas dat ecg physikalischtechnisch bundesanstalt ptb dispon physi bank aport gran cantid pacient san isquemi infart ecg digitaliz khz bits resolu rang mv registr inclu deriv simultan deriv ortogonal franz dispon histori clinic pacient result obtenidos/esper investig obten siguient result algoritm eficient estim parametr model activ electr corazon result algoritm obtien parametr mejor ajust model lat real dad reflej morfolog lat algoritm ejecut optimiz global heurist bas metod simul mont carl clasif lat provenient sujet san sujet sufr event cardiac bas separ espaci parametr obten aplic support vector machin svm implement algoritm filtr enfoqu bayesian fin separ component ruid señal ecg logr buen perfomanc distint nivel snr signal/nois rati result esper caracteriz señal electrocardiogram ecg divers patolog espaci parametr model señal utiliz represent mod altern fin facilit clasif plant test nuev sistem represent señal permit detect patron ocult indic posibl event patolog diseñ entren test red neuronal capaz identific señal electrocardiograf patolog part aprendizaj featur identific formacion recurs human equip investig llev adel ide aqu expuest conform autor trabaj bioing sergi liberczuk encuentr desarroll tesis doctor baj direccion doctor silvan zanutt director institut ingeni biomed uba codireccion dr pedr arini facult ingeni uba bibliograf ahsan mr ibrahimy khalif electromygraphy emg signal bas hand gestur recognition using artificial neural network ann th international conferenc mechatronics icom ieee bergamini ml liberczuk bayesi inversion approach ecg denoising vii congres matemat aplic computacional industrial vii maci rio cuart cordob argentin janz clifford shoeb mcsharry modelbas filtering compression classification ecg international journal bioelectromagnetism vol engin ecg beat classification using neurofuzzy network pattern recognitnion letters huang shen long wu shih zheng liu empirical mod decomposition hilbert spectrum nonlin nonstationary tim seri analysis proceedings royal society london seri mathematical physical engineering scienc proc soc lond kundu gupt electrocardiogram synthesis using gaussi fouri models ieee int conf research computational intelligenc communication networks nov kolkat indi labati rd muñoz piuri sassi scotti deepecg convolutional neural networks ecg biometric recognition pattern recognition lett liberczuk sj ml bergamini arini heart beat parametric modeling bas mont carl fitting techniqu revist argentin bioingeni vol issn liberczuk bergamini model bas featur extraction method myocardial infarction detection xxi congres argentin mecan computacional mcsharry clifford tarassenk smith dynamical model generating synthetic electrocardiogram signals ieee transactions biomedical engineering vol adeli martis achary current methods electrocardiogram characterization computers biology medicin vol sameni shamsollahi jutt clifford nonlin bayesi filtering framework ecg denoising ieee trans biom eng vol sayadi shamsollahi clifford robust detection prematur ventricul contractions using wavebas bayesi framework ieee trans biom eng vol tamil ebm kamarudin nh salleh tamil review featur extraction classification techniqu biosignal processing part electrocardiogram abu osman na ibrahim wan abas wab abdul rahm hs ting hn eds th kual lumpur international conferenc biomedical engineering ifmbe proceedings vol spring berlin heidelberg physionet ranj awasthi aggarawal gulati applications fuzzy neurofuzzy biomedical health scienc ieee international conferenc electro/information technology ieee rilling flandrin goncalv empirical mod decomposition algorithms ieeeeurasip workshop nonlin signal imag processing vol sanchez cerver ecg classification using artificial neural networks journal physics conferenc seri vol iop publishing</t>
         </is>
       </c>
     </row>
